--- a/architecture compliance.xlsx
+++ b/architecture compliance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efo02/Documents/GitHub/architecture_compliance_replication_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA9B798-9E6C-134F-8449-AC224D94BDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B9A3F-D179-914E-AF31-2630557BAAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6414,7 +6414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="775">
   <si>
     <t>RQ1-Publication trends</t>
   </si>
@@ -8119,9 +8119,6 @@
 3) Neo 4J </t>
   </si>
   <si>
-    <t>The database can not be mapped to the standard as the standard does not consider DB as part of the DT.</t>
-  </si>
-  <si>
     <t>Synchronization</t>
   </si>
   <si>
@@ -8197,9 +8194,6 @@
     <t>Eclipse Ditto</t>
   </si>
   <si>
-    <t>There is Kafka that we did not map. It may be a new additional one.</t>
-  </si>
-  <si>
     <t>Data analytics and visualization</t>
   </si>
   <si>
@@ -8264,9 +8258,6 @@
   </si>
   <si>
     <t>Internal side</t>
-  </si>
-  <si>
-    <t>Data lake, node red, Influx DB.</t>
   </si>
   <si>
     <t>Central data administration</t>
@@ -8347,9 +8338,6 @@
     <t xml:space="preserve">event driven services </t>
   </si>
   <si>
-    <t xml:space="preserve">RESTful services implemented in python, Data pipelines  spark, flink, storm </t>
-  </si>
-  <si>
     <t>Data infrastracture layer</t>
   </si>
   <si>
@@ -8656,9 +8644,6 @@
     <t>Siemens S7-1200 _x000D_PLC</t>
   </si>
   <si>
-    <t xml:space="preserve">Local data repositiories </t>
-  </si>
-  <si>
     <t>"Various OPCservers available from reputable vendors have the potentialto be used in Layer 3. For the case study, KEPServerEXfrom Kepware Technologies was selected, with access tomore than 150 data source drivers."</t>
   </si>
   <si>
@@ -8762,6 +8747,49 @@
   </si>
   <si>
     <t xml:space="preserve">Apache StreamPipes Components </t>
+  </si>
+  <si>
+    <t>NoSql database. (The database can not be mapped to the standard as the standard does not consider DB as part of the DT.)</t>
+  </si>
+  <si>
+    <t>Message streaming platform Apache Kafka, NoSql database Influx DB</t>
+  </si>
+  <si>
+    <t>Cloud st+M60orage.</t>
+  </si>
+  <si>
+    <t>Cloud database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data lake, Influx DB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTful services implemented in python, Processing systems: spark, flink, storm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FE:knowledge base storage for information models </t>
+  </si>
+  <si>
+    <t>New FE: storage "The storage and
+management of engineering data rely on complex relational
+data models and large centralized databases and
+data management systems (DBMSs) or engineering data
+warehouses (e.g., PLM solutions and PPR data hubs)."</t>
+  </si>
+  <si>
+    <t>New FE: Persistence layer to store the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FE: information models are stored in database </t>
+  </si>
+  <si>
+    <t>New FE: Information models are stored in relational databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FE: Local data repositiories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New FE: Information models are stored in relational databases </t>
   </si>
 </sst>
 </file>
@@ -9482,7 +9510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10111,6 +10139,9 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31227,8 +31258,8 @@
   <dimension ref="A1:N788"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H670" sqref="H670"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L612" sqref="L612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -31267,7 +31298,7 @@
       <c r="J1" s="236"/>
       <c r="K1" s="111"/>
       <c r="L1" s="127" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="112" customFormat="1" ht="14">
@@ -31480,8 +31511,8 @@
         <v>557</v>
       </c>
       <c r="K12" s="111"/>
-      <c r="L12" s="112" t="s">
-        <v>558</v>
+      <c r="L12" s="127" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="112" customFormat="1" ht="14">
@@ -31491,7 +31522,7 @@
       <c r="D13" s="237"/>
       <c r="E13" s="237"/>
       <c r="F13" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G13" s="71"/>
       <c r="H13" s="198"/>
@@ -31505,10 +31536,10 @@
       <c r="C14" s="67"/>
       <c r="D14" s="237"/>
       <c r="E14" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F14" s="78" t="s">
         <v>560</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>561</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="198"/>
@@ -31523,7 +31554,7 @@
       <c r="D15" s="237"/>
       <c r="E15" s="237"/>
       <c r="F15" s="78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="198"/>
@@ -31538,7 +31569,7 @@
       <c r="D16" s="237"/>
       <c r="E16" s="237"/>
       <c r="F16" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G16" s="70"/>
       <c r="H16" s="198"/>
@@ -31553,7 +31584,7 @@
       <c r="D17" s="237"/>
       <c r="E17" s="237"/>
       <c r="F17" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G17" s="70"/>
       <c r="H17" s="198"/>
@@ -31567,10 +31598,10 @@
       <c r="C18" s="67"/>
       <c r="D18" s="237"/>
       <c r="E18" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F18" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G18" s="71"/>
       <c r="H18" s="198"/>
@@ -31585,7 +31616,7 @@
       <c r="D19" s="237"/>
       <c r="E19" s="237"/>
       <c r="F19" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G19" s="71"/>
       <c r="H19" s="198"/>
@@ -31600,7 +31631,7 @@
       <c r="D20" s="237"/>
       <c r="E20" s="237"/>
       <c r="F20" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="198"/>
@@ -31615,7 +31646,7 @@
       <c r="D21" s="237"/>
       <c r="E21" s="237"/>
       <c r="F21" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="205"/>
@@ -31628,10 +31659,10 @@
       <c r="B22" s="235"/>
       <c r="C22" s="67"/>
       <c r="D22" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E22" s="72" t="s">
         <v>570</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>571</v>
       </c>
       <c r="F22" s="198"/>
       <c r="G22" s="67"/>
@@ -31645,15 +31676,15 @@
       <c r="B23" s="235"/>
       <c r="C23" s="67"/>
       <c r="D23" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="77" t="s">
         <v>572</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>573</v>
       </c>
       <c r="F23" s="198"/>
       <c r="G23" s="67"/>
       <c r="H23" s="184" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
@@ -31665,7 +31696,7 @@
       <c r="C24" s="67"/>
       <c r="D24" s="237"/>
       <c r="E24" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F24" s="198"/>
       <c r="G24" s="67"/>
@@ -31680,7 +31711,7 @@
       <c r="C25" s="67"/>
       <c r="D25" s="237"/>
       <c r="E25" s="200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F25" s="198"/>
       <c r="G25" s="67"/>
@@ -31716,7 +31747,7 @@
         <v>535</v>
       </c>
       <c r="I27" s="90" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J27" s="91"/>
       <c r="K27" s="117"/>
@@ -31732,17 +31763,17 @@
         <v>539</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G28" s="69"/>
       <c r="H28" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="I28" s="90" t="s">
         <v>579</v>
       </c>
-      <c r="I28" s="90" t="s">
+      <c r="J28" s="137" t="s">
         <v>580</v>
-      </c>
-      <c r="J28" s="137" t="s">
-        <v>581</v>
       </c>
       <c r="K28" s="111"/>
     </row>
@@ -31839,13 +31870,13 @@
       </c>
       <c r="G34" s="69"/>
       <c r="H34" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="I34" s="138" t="s">
+        <v>579</v>
+      </c>
+      <c r="J34" s="90" t="s">
         <v>582</v>
-      </c>
-      <c r="I34" s="138" t="s">
-        <v>580</v>
-      </c>
-      <c r="J34" s="90" t="s">
-        <v>583</v>
       </c>
       <c r="K34" s="111"/>
     </row>
@@ -31886,7 +31917,7 @@
       <c r="D37" s="237"/>
       <c r="E37" s="237"/>
       <c r="F37" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G37" s="71"/>
       <c r="H37" s="198"/>
@@ -31894,7 +31925,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="111"/>
       <c r="L37" s="127" t="s">
-        <v>584</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="112" customFormat="1" ht="14">
@@ -31903,10 +31934,10 @@
       <c r="C38" s="67"/>
       <c r="D38" s="237"/>
       <c r="E38" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F38" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F38" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G38" s="70"/>
       <c r="H38" s="198"/>
@@ -31921,17 +31952,17 @@
       <c r="D39" s="237"/>
       <c r="E39" s="237"/>
       <c r="F39" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G39" s="70"/>
       <c r="H39" s="76" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I39" s="138" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J39" s="90" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K39" s="111"/>
     </row>
@@ -31942,7 +31973,7 @@
       <c r="D40" s="237"/>
       <c r="E40" s="237"/>
       <c r="F40" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G40" s="70"/>
       <c r="H40" s="198"/>
@@ -31957,7 +31988,7 @@
       <c r="D41" s="237"/>
       <c r="E41" s="237"/>
       <c r="F41" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G41" s="70"/>
       <c r="H41" s="198"/>
@@ -31971,10 +32002,10 @@
       <c r="C42" s="67"/>
       <c r="D42" s="237"/>
       <c r="E42" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F42" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F42" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="198"/>
@@ -31989,7 +32020,7 @@
       <c r="D43" s="237"/>
       <c r="E43" s="237"/>
       <c r="F43" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G43" s="71"/>
       <c r="H43" s="198"/>
@@ -32004,7 +32035,7 @@
       <c r="D44" s="237"/>
       <c r="E44" s="237"/>
       <c r="F44" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G44" s="71"/>
       <c r="H44" s="198"/>
@@ -32019,7 +32050,7 @@
       <c r="D45" s="237"/>
       <c r="E45" s="237"/>
       <c r="F45" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G45" s="71"/>
       <c r="H45" s="198"/>
@@ -32032,10 +32063,10 @@
       <c r="B46" s="235"/>
       <c r="C46" s="67"/>
       <c r="D46" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E46" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E46" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F46" s="198"/>
       <c r="G46" s="67"/>
@@ -32049,10 +32080,10 @@
       <c r="B47" s="235"/>
       <c r="C47" s="67"/>
       <c r="D47" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E47" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E47" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F47" s="198"/>
       <c r="G47" s="67"/>
@@ -32067,7 +32098,7 @@
       <c r="C48" s="67"/>
       <c r="D48" s="237"/>
       <c r="E48" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F48" s="198"/>
       <c r="G48" s="67"/>
@@ -32082,7 +32113,7 @@
       <c r="C49" s="67"/>
       <c r="D49" s="237"/>
       <c r="E49" s="200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F49" s="198"/>
       <c r="G49" s="67"/>
@@ -32116,7 +32147,7 @@
       <c r="F51" s="68"/>
       <c r="G51" s="68"/>
       <c r="H51" s="92" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I51" s="90"/>
       <c r="J51" s="91"/>
@@ -32137,7 +32168,7 @@
       </c>
       <c r="G52" s="69"/>
       <c r="H52" s="106" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I52" s="120"/>
       <c r="J52" s="137"/>
@@ -32269,6 +32300,9 @@
       <c r="I60" s="90"/>
       <c r="J60" s="90"/>
       <c r="K60" s="111"/>
+      <c r="M60" s="127" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="61" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A61" s="239"/>
@@ -32277,11 +32311,11 @@
       <c r="D61" s="237"/>
       <c r="E61" s="237"/>
       <c r="F61" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G61" s="71"/>
       <c r="H61" s="78" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I61" s="90"/>
       <c r="J61" s="90"/>
@@ -32293,10 +32327,10 @@
       <c r="C62" s="67"/>
       <c r="D62" s="237"/>
       <c r="E62" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F62" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F62" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G62" s="70"/>
       <c r="H62" s="198"/>
@@ -32311,11 +32345,11 @@
       <c r="D63" s="237"/>
       <c r="E63" s="237"/>
       <c r="F63" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G63" s="70"/>
       <c r="H63" s="85" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I63" s="90"/>
       <c r="J63" s="90"/>
@@ -32328,7 +32362,7 @@
       <c r="D64" s="237"/>
       <c r="E64" s="237"/>
       <c r="F64" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G64" s="70"/>
       <c r="H64" s="198"/>
@@ -32343,7 +32377,7 @@
       <c r="D65" s="237"/>
       <c r="E65" s="237"/>
       <c r="F65" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G65" s="70"/>
       <c r="H65" s="198"/>
@@ -32357,14 +32391,14 @@
       <c r="C66" s="67"/>
       <c r="D66" s="237"/>
       <c r="E66" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F66" s="107" t="s">
         <v>565</v>
-      </c>
-      <c r="F66" s="107" t="s">
-        <v>566</v>
       </c>
       <c r="G66" s="71"/>
       <c r="H66" s="107" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I66" s="90"/>
       <c r="J66" s="90"/>
@@ -32377,7 +32411,7 @@
       <c r="D67" s="237"/>
       <c r="E67" s="237"/>
       <c r="F67" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G67" s="71"/>
       <c r="H67" s="198"/>
@@ -32392,7 +32426,7 @@
       <c r="D68" s="237"/>
       <c r="E68" s="237"/>
       <c r="F68" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G68" s="71"/>
       <c r="H68" s="198"/>
@@ -32407,7 +32441,7 @@
       <c r="D69" s="237"/>
       <c r="E69" s="237"/>
       <c r="F69" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G69" s="71"/>
       <c r="H69" s="198"/>
@@ -32420,15 +32454,15 @@
       <c r="B70" s="235"/>
       <c r="C70" s="67"/>
       <c r="D70" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E70" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E70" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F70" s="198"/>
       <c r="G70" s="67"/>
       <c r="H70" s="72" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I70" s="90"/>
       <c r="J70" s="90"/>
@@ -32439,10 +32473,10 @@
       <c r="B71" s="235"/>
       <c r="C71" s="67"/>
       <c r="D71" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E71" s="78" t="s">
         <v>572</v>
-      </c>
-      <c r="E71" s="78" t="s">
-        <v>573</v>
       </c>
       <c r="F71" s="198"/>
       <c r="G71" s="67"/>
@@ -32457,7 +32491,7 @@
       <c r="C72" s="67"/>
       <c r="D72" s="237"/>
       <c r="E72" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F72" s="198"/>
       <c r="G72" s="67"/>
@@ -32472,7 +32506,7 @@
       <c r="C73" s="67"/>
       <c r="D73" s="237"/>
       <c r="E73" s="200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F73" s="198"/>
       <c r="G73" s="67"/>
@@ -32530,7 +32564,7 @@
       </c>
       <c r="G76" s="69"/>
       <c r="H76" s="74" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I76" s="90"/>
       <c r="J76" s="137"/>
@@ -32550,6 +32584,9 @@
       <c r="I77" s="90"/>
       <c r="J77" s="90"/>
       <c r="K77" s="111"/>
+      <c r="L77" s="127" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="78" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A78" s="241"/>
@@ -32670,7 +32707,7 @@
       <c r="D85" s="237"/>
       <c r="E85" s="237"/>
       <c r="F85" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G85" s="71"/>
       <c r="H85" s="198"/>
@@ -32684,20 +32721,20 @@
       <c r="C86" s="67"/>
       <c r="D86" s="237"/>
       <c r="E86" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F86" s="139" t="s">
         <v>560</v>
-      </c>
-      <c r="F86" s="139" t="s">
-        <v>561</v>
       </c>
       <c r="G86" s="70"/>
       <c r="H86" s="121" t="s">
+        <v>592</v>
+      </c>
+      <c r="I86" s="90" t="s">
+        <v>593</v>
+      </c>
+      <c r="J86" s="90" t="s">
         <v>594</v>
-      </c>
-      <c r="I86" s="90" t="s">
-        <v>595</v>
-      </c>
-      <c r="J86" s="90" t="s">
-        <v>596</v>
       </c>
       <c r="K86" s="111"/>
     </row>
@@ -32708,15 +32745,15 @@
       <c r="D87" s="237"/>
       <c r="E87" s="237"/>
       <c r="F87" s="139" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G87" s="70"/>
       <c r="H87" s="198"/>
       <c r="I87" s="90" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J87" s="90" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K87" s="111"/>
     </row>
@@ -32727,7 +32764,7 @@
       <c r="D88" s="237"/>
       <c r="E88" s="237"/>
       <c r="F88" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G88" s="70"/>
       <c r="H88" s="198"/>
@@ -32742,7 +32779,7 @@
       <c r="D89" s="237"/>
       <c r="E89" s="237"/>
       <c r="F89" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G89" s="70"/>
       <c r="H89" s="198"/>
@@ -32756,10 +32793,10 @@
       <c r="C90" s="67"/>
       <c r="D90" s="237"/>
       <c r="E90" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F90" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F90" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G90" s="71"/>
       <c r="H90" s="198"/>
@@ -32774,7 +32811,7 @@
       <c r="D91" s="237"/>
       <c r="E91" s="237"/>
       <c r="F91" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G91" s="71"/>
       <c r="H91" s="198"/>
@@ -32789,7 +32826,7 @@
       <c r="D92" s="237"/>
       <c r="E92" s="237"/>
       <c r="F92" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G92" s="71"/>
       <c r="H92" s="198"/>
@@ -32804,7 +32841,7 @@
       <c r="D93" s="237"/>
       <c r="E93" s="237"/>
       <c r="F93" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G93" s="71"/>
       <c r="H93" s="198"/>
@@ -32817,15 +32854,15 @@
       <c r="B94" s="235"/>
       <c r="C94" s="67"/>
       <c r="D94" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E94" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E94" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F94" s="198"/>
       <c r="G94" s="67"/>
       <c r="H94" s="72" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I94" s="90"/>
       <c r="J94" s="90"/>
@@ -32836,10 +32873,10 @@
       <c r="B95" s="235"/>
       <c r="C95" s="67"/>
       <c r="D95" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E95" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E95" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F95" s="198"/>
       <c r="G95" s="67"/>
@@ -32854,7 +32891,7 @@
       <c r="C96" s="67"/>
       <c r="D96" s="237"/>
       <c r="E96" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F96" s="198"/>
       <c r="G96" s="67"/>
@@ -32869,7 +32906,7 @@
       <c r="C97" s="67"/>
       <c r="D97" s="244"/>
       <c r="E97" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F97" s="205"/>
       <c r="G97" s="67"/>
@@ -32909,7 +32946,7 @@
         <v>535</v>
       </c>
       <c r="I99" s="120" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J99" s="125"/>
       <c r="K99" s="111"/>
@@ -32929,13 +32966,13 @@
       </c>
       <c r="G100" s="69"/>
       <c r="H100" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="I100" s="91" t="s">
+        <v>600</v>
+      </c>
+      <c r="J100" s="137" t="s">
         <v>601</v>
-      </c>
-      <c r="I100" s="91" t="s">
-        <v>602</v>
-      </c>
-      <c r="J100" s="137" t="s">
-        <v>603</v>
       </c>
       <c r="K100" s="111"/>
     </row>
@@ -32950,11 +32987,11 @@
       </c>
       <c r="G101" s="69"/>
       <c r="H101" s="78" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I101" s="90"/>
       <c r="J101" s="90" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K101" s="111"/>
     </row>
@@ -33020,6 +33057,9 @@
       <c r="I105" s="90"/>
       <c r="J105" s="90"/>
       <c r="K105" s="111"/>
+      <c r="L105" s="127" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="106" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A106" s="239"/>
@@ -33036,11 +33076,11 @@
       </c>
       <c r="G106" s="69"/>
       <c r="H106" s="76" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I106" s="90"/>
       <c r="J106" s="137" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K106" s="111"/>
     </row>
@@ -33081,7 +33121,7 @@
       <c r="D109" s="237"/>
       <c r="E109" s="237"/>
       <c r="F109" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G109" s="71"/>
       <c r="H109" s="198"/>
@@ -33095,10 +33135,10 @@
       <c r="C110" s="67"/>
       <c r="D110" s="237"/>
       <c r="E110" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F110" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F110" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G110" s="70"/>
       <c r="H110" s="198"/>
@@ -33113,11 +33153,11 @@
       <c r="D111" s="237"/>
       <c r="E111" s="237"/>
       <c r="F111" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G111" s="70"/>
       <c r="H111" s="85" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I111" s="90"/>
       <c r="J111" s="90"/>
@@ -33130,7 +33170,7 @@
       <c r="D112" s="237"/>
       <c r="E112" s="237"/>
       <c r="F112" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G112" s="70"/>
       <c r="H112" s="198"/>
@@ -33145,7 +33185,7 @@
       <c r="D113" s="237"/>
       <c r="E113" s="237"/>
       <c r="F113" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G113" s="70"/>
       <c r="H113" s="198"/>
@@ -33159,10 +33199,10 @@
       <c r="C114" s="67"/>
       <c r="D114" s="237"/>
       <c r="E114" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F114" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F114" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G114" s="71"/>
       <c r="H114" s="198"/>
@@ -33177,7 +33217,7 @@
       <c r="D115" s="237"/>
       <c r="E115" s="237"/>
       <c r="F115" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G115" s="71"/>
       <c r="H115" s="198"/>
@@ -33192,7 +33232,7 @@
       <c r="D116" s="237"/>
       <c r="E116" s="237"/>
       <c r="F116" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G116" s="71"/>
       <c r="H116" s="198"/>
@@ -33207,7 +33247,7 @@
       <c r="D117" s="237"/>
       <c r="E117" s="237"/>
       <c r="F117" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G117" s="71"/>
       <c r="H117" s="198"/>
@@ -33220,10 +33260,10 @@
       <c r="B118" s="235"/>
       <c r="C118" s="67"/>
       <c r="D118" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E118" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E118" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F118" s="198"/>
       <c r="G118" s="67"/>
@@ -33237,10 +33277,10 @@
       <c r="B119" s="235"/>
       <c r="C119" s="67"/>
       <c r="D119" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E119" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E119" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F119" s="198"/>
       <c r="G119" s="67"/>
@@ -33255,7 +33295,7 @@
       <c r="C120" s="67"/>
       <c r="D120" s="237"/>
       <c r="E120" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F120" s="198"/>
       <c r="G120" s="67"/>
@@ -33270,7 +33310,7 @@
       <c r="C121" s="67"/>
       <c r="D121" s="244"/>
       <c r="E121" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F121" s="205"/>
       <c r="G121" s="67"/>
@@ -33306,13 +33346,13 @@
       <c r="F123" s="87"/>
       <c r="G123" s="67"/>
       <c r="H123" s="100" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I123" s="120"/>
       <c r="J123" s="125"/>
       <c r="K123" s="117"/>
       <c r="L123" s="233" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="112" customFormat="1" ht="42">
@@ -33330,11 +33370,11 @@
       </c>
       <c r="G124" s="69"/>
       <c r="H124" s="74" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I124" s="90"/>
       <c r="J124" s="140" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K124" s="111"/>
     </row>
@@ -33401,7 +33441,7 @@
       <c r="K128" s="111"/>
       <c r="M128" s="113"/>
     </row>
-    <row r="129" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="129" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A129" s="234"/>
       <c r="B129" s="235"/>
       <c r="C129" s="67"/>
@@ -33416,7 +33456,7 @@
       <c r="J129" s="90"/>
       <c r="K129" s="111"/>
     </row>
-    <row r="130" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="130" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A130" s="234"/>
       <c r="B130" s="235"/>
       <c r="C130" s="67"/>
@@ -33430,14 +33470,15 @@
         <v>552</v>
       </c>
       <c r="G130" s="69"/>
-      <c r="H130" s="78" t="s">
-        <v>612</v>
-      </c>
+      <c r="H130" s="78"/>
       <c r="I130" s="90"/>
       <c r="J130" s="90"/>
       <c r="K130" s="111"/>
-    </row>
-    <row r="131" spans="1:11" s="112" customFormat="1" ht="14">
+      <c r="L130" s="127" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A131" s="234"/>
       <c r="B131" s="235"/>
       <c r="C131" s="67"/>
@@ -33452,7 +33493,7 @@
       <c r="J131" s="90"/>
       <c r="K131" s="111"/>
     </row>
-    <row r="132" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="132" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A132" s="234"/>
       <c r="B132" s="235"/>
       <c r="C132" s="67"/>
@@ -33467,14 +33508,14 @@
       <c r="J132" s="90"/>
       <c r="K132" s="111"/>
     </row>
-    <row r="133" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="133" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A133" s="234"/>
       <c r="B133" s="235"/>
       <c r="C133" s="67"/>
       <c r="D133" s="237"/>
       <c r="E133" s="237"/>
       <c r="F133" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G133" s="71"/>
       <c r="H133" s="198"/>
@@ -33482,37 +33523,37 @@
       <c r="J133" s="90"/>
       <c r="K133" s="111"/>
     </row>
-    <row r="134" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="134" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A134" s="234"/>
       <c r="B134" s="235"/>
       <c r="C134" s="67"/>
       <c r="D134" s="237"/>
       <c r="E134" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F134" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F134" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G134" s="70"/>
       <c r="H134" s="85" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I134" s="90" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J134" s="90" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K134" s="111"/>
     </row>
-    <row r="135" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="135" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A135" s="234"/>
       <c r="B135" s="235"/>
       <c r="C135" s="67"/>
       <c r="D135" s="237"/>
       <c r="E135" s="237"/>
       <c r="F135" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G135" s="70"/>
       <c r="H135" s="198"/>
@@ -33520,33 +33561,33 @@
       <c r="J135" s="90"/>
       <c r="K135" s="111"/>
     </row>
-    <row r="136" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="136" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A136" s="234"/>
       <c r="B136" s="235"/>
       <c r="C136" s="67"/>
       <c r="D136" s="237"/>
       <c r="E136" s="237"/>
       <c r="F136" s="198" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G136" s="70"/>
       <c r="H136" s="126" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I136" s="90"/>
       <c r="J136" s="90" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K136" s="111"/>
     </row>
-    <row r="137" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="137" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A137" s="234"/>
       <c r="B137" s="235"/>
       <c r="C137" s="67"/>
       <c r="D137" s="237"/>
       <c r="E137" s="237"/>
       <c r="F137" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G137" s="70"/>
       <c r="H137" s="198"/>
@@ -33554,16 +33595,16 @@
       <c r="J137" s="90"/>
       <c r="K137" s="111"/>
     </row>
-    <row r="138" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="138" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A138" s="234"/>
       <c r="B138" s="235"/>
       <c r="C138" s="67"/>
       <c r="D138" s="237"/>
       <c r="E138" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F138" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F138" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G138" s="71"/>
       <c r="H138" s="198"/>
@@ -33571,14 +33612,14 @@
       <c r="J138" s="90"/>
       <c r="K138" s="111"/>
     </row>
-    <row r="139" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="139" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A139" s="234"/>
       <c r="B139" s="235"/>
       <c r="C139" s="67"/>
       <c r="D139" s="237"/>
       <c r="E139" s="237"/>
       <c r="F139" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G139" s="71"/>
       <c r="H139" s="198"/>
@@ -33586,14 +33627,14 @@
       <c r="J139" s="90"/>
       <c r="K139" s="111"/>
     </row>
-    <row r="140" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="140" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A140" s="234"/>
       <c r="B140" s="235"/>
       <c r="C140" s="67"/>
       <c r="D140" s="237"/>
       <c r="E140" s="237"/>
       <c r="F140" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G140" s="71"/>
       <c r="H140" s="198"/>
@@ -33601,14 +33642,14 @@
       <c r="J140" s="90"/>
       <c r="K140" s="111"/>
     </row>
-    <row r="141" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="141" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A141" s="234"/>
       <c r="B141" s="235"/>
       <c r="C141" s="67"/>
       <c r="D141" s="237"/>
       <c r="E141" s="237"/>
       <c r="F141" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G141" s="71"/>
       <c r="H141" s="198"/>
@@ -33616,34 +33657,34 @@
       <c r="J141" s="90"/>
       <c r="K141" s="111"/>
     </row>
-    <row r="142" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="142" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A142" s="234"/>
       <c r="B142" s="235"/>
       <c r="C142" s="67"/>
       <c r="D142" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E142" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E142" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F142" s="198"/>
       <c r="G142" s="67"/>
       <c r="H142" s="72" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I142" s="90"/>
       <c r="J142" s="90"/>
       <c r="K142" s="111"/>
     </row>
-    <row r="143" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="143" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A143" s="234"/>
       <c r="B143" s="235"/>
       <c r="C143" s="67"/>
       <c r="D143" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E143" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E143" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F143" s="198"/>
       <c r="G143" s="67"/>
@@ -33652,13 +33693,13 @@
       <c r="J143" s="90"/>
       <c r="K143" s="111"/>
     </row>
-    <row r="144" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="144" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A144" s="234"/>
       <c r="B144" s="235"/>
       <c r="C144" s="67"/>
       <c r="D144" s="237"/>
       <c r="E144" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F144" s="198"/>
       <c r="G144" s="67"/>
@@ -33673,7 +33714,7 @@
       <c r="C145" s="67"/>
       <c r="D145" s="244"/>
       <c r="E145" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F145" s="205"/>
       <c r="G145" s="67"/>
@@ -33709,13 +33750,13 @@
       <c r="F147" s="87"/>
       <c r="G147" s="67"/>
       <c r="H147" s="100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I147" s="120"/>
       <c r="J147" s="91"/>
       <c r="K147" s="117"/>
       <c r="N147" s="118" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="112" customFormat="1" ht="56">
@@ -33733,13 +33774,13 @@
       </c>
       <c r="G148" s="69"/>
       <c r="H148" s="74" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I148" s="90" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J148" s="141" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K148" s="111"/>
     </row>
@@ -33758,7 +33799,7 @@
       <c r="J149" s="90"/>
       <c r="K149" s="111"/>
       <c r="L149" s="71" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="112" customFormat="1" ht="14">
@@ -33843,7 +33884,7 @@
       <c r="J154" s="90"/>
       <c r="K154" s="111"/>
       <c r="L154" s="127" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="112" customFormat="1" ht="14">
@@ -33883,7 +33924,7 @@
       <c r="D157" s="237"/>
       <c r="E157" s="237"/>
       <c r="F157" s="207" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G157" s="71"/>
       <c r="H157" s="198"/>
@@ -33897,10 +33938,10 @@
       <c r="C158" s="67"/>
       <c r="D158" s="237"/>
       <c r="E158" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F158" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F158" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G158" s="70"/>
       <c r="H158" s="198"/>
@@ -33915,17 +33956,17 @@
       <c r="D159" s="237"/>
       <c r="E159" s="237"/>
       <c r="F159" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G159" s="70"/>
       <c r="H159" s="85" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I159" s="90" t="s">
-        <v>627</v>
-      </c>
-      <c r="J159" s="90" t="s">
-        <v>628</v>
+        <v>624</v>
+      </c>
+      <c r="J159" s="137" t="s">
+        <v>767</v>
       </c>
       <c r="K159" s="111"/>
     </row>
@@ -33936,7 +33977,7 @@
       <c r="D160" s="237"/>
       <c r="E160" s="237"/>
       <c r="F160" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G160" s="70"/>
       <c r="H160" s="198"/>
@@ -33951,7 +33992,7 @@
       <c r="D161" s="237"/>
       <c r="E161" s="237"/>
       <c r="F161" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G161" s="70"/>
       <c r="H161" s="198"/>
@@ -33965,10 +34006,10 @@
       <c r="C162" s="67"/>
       <c r="D162" s="237"/>
       <c r="E162" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" s="85" t="s">
         <v>565</v>
-      </c>
-      <c r="F162" s="85" t="s">
-        <v>566</v>
       </c>
       <c r="G162" s="71"/>
       <c r="H162" s="198"/>
@@ -33983,7 +34024,7 @@
       <c r="D163" s="237"/>
       <c r="E163" s="237"/>
       <c r="F163" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G163" s="71"/>
       <c r="H163" s="198"/>
@@ -33998,7 +34039,7 @@
       <c r="D164" s="237"/>
       <c r="E164" s="237"/>
       <c r="F164" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G164" s="71"/>
       <c r="H164" s="198"/>
@@ -34013,7 +34054,7 @@
       <c r="D165" s="237"/>
       <c r="E165" s="237"/>
       <c r="F165" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G165" s="71"/>
       <c r="H165" s="198"/>
@@ -34026,10 +34067,10 @@
       <c r="B166" s="235"/>
       <c r="C166" s="67"/>
       <c r="D166" s="203" t="s">
+        <v>569</v>
+      </c>
+      <c r="E166" s="85" t="s">
         <v>570</v>
-      </c>
-      <c r="E166" s="85" t="s">
-        <v>571</v>
       </c>
       <c r="F166" s="198"/>
       <c r="G166" s="67"/>
@@ -34043,10 +34084,10 @@
       <c r="B167" s="235"/>
       <c r="C167" s="67"/>
       <c r="D167" s="247" t="s">
+        <v>571</v>
+      </c>
+      <c r="E167" s="185" t="s">
         <v>572</v>
-      </c>
-      <c r="E167" s="185" t="s">
-        <v>573</v>
       </c>
       <c r="F167" s="198"/>
       <c r="G167" s="67"/>
@@ -34061,7 +34102,7 @@
       <c r="C168" s="67"/>
       <c r="D168" s="247"/>
       <c r="E168" s="185" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F168" s="198"/>
       <c r="G168" s="67"/>
@@ -34076,7 +34117,7 @@
       <c r="C169" s="67"/>
       <c r="D169" s="247"/>
       <c r="E169" s="186" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F169" s="205"/>
       <c r="G169" s="67"/>
@@ -34111,7 +34152,7 @@
       <c r="F171" s="87"/>
       <c r="G171" s="67"/>
       <c r="H171" s="100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I171" s="120"/>
       <c r="J171" s="125"/>
@@ -34133,17 +34174,17 @@
       </c>
       <c r="G172" s="69"/>
       <c r="H172" s="74" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I172" s="90" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J172" s="137" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K172" s="111"/>
       <c r="L172" s="217" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="173" spans="1:13" s="112" customFormat="1" ht="14">
@@ -34160,6 +34201,9 @@
       <c r="I173" s="90"/>
       <c r="J173" s="90"/>
       <c r="K173" s="111"/>
+      <c r="L173" s="127" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="174" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A174" s="239"/>
@@ -34280,7 +34324,7 @@
       <c r="D181" s="237"/>
       <c r="E181" s="237"/>
       <c r="F181" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G181" s="71"/>
       <c r="H181" s="198"/>
@@ -34294,10 +34338,10 @@
       <c r="C182" s="67"/>
       <c r="D182" s="237"/>
       <c r="E182" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F182" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F182" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G182" s="70"/>
       <c r="H182" s="198"/>
@@ -34312,7 +34356,7 @@
       <c r="D183" s="237"/>
       <c r="E183" s="237"/>
       <c r="F183" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G183" s="70"/>
       <c r="H183" s="198"/>
@@ -34327,7 +34371,7 @@
       <c r="D184" s="237"/>
       <c r="E184" s="237"/>
       <c r="F184" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G184" s="70"/>
       <c r="H184" s="198"/>
@@ -34342,17 +34386,17 @@
       <c r="D185" s="237"/>
       <c r="E185" s="237"/>
       <c r="F185" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G185" s="70"/>
       <c r="H185" s="78" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I185" s="90" t="s">
         <v>220</v>
       </c>
       <c r="J185" s="90" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K185" s="111"/>
     </row>
@@ -34362,10 +34406,10 @@
       <c r="C186" s="67"/>
       <c r="D186" s="237"/>
       <c r="E186" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F186" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F186" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G186" s="71"/>
       <c r="H186" s="198"/>
@@ -34380,7 +34424,7 @@
       <c r="D187" s="237"/>
       <c r="E187" s="237"/>
       <c r="F187" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G187" s="71"/>
       <c r="H187" s="198"/>
@@ -34395,7 +34439,7 @@
       <c r="D188" s="237"/>
       <c r="E188" s="237"/>
       <c r="F188" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G188" s="71"/>
       <c r="H188" s="198"/>
@@ -34410,7 +34454,7 @@
       <c r="D189" s="237"/>
       <c r="E189" s="237"/>
       <c r="F189" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G189" s="71"/>
       <c r="H189" s="198"/>
@@ -34423,10 +34467,10 @@
       <c r="B190" s="235"/>
       <c r="C190" s="67"/>
       <c r="D190" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E190" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E190" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F190" s="198"/>
       <c r="G190" s="67"/>
@@ -34440,10 +34484,10 @@
       <c r="B191" s="235"/>
       <c r="C191" s="67"/>
       <c r="D191" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E191" s="77" t="s">
         <v>572</v>
-      </c>
-      <c r="E191" s="77" t="s">
-        <v>573</v>
       </c>
       <c r="F191" s="198"/>
       <c r="G191" s="67"/>
@@ -34458,7 +34502,7 @@
       <c r="C192" s="67"/>
       <c r="D192" s="237"/>
       <c r="E192" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F192" s="198"/>
       <c r="G192" s="67"/>
@@ -34473,7 +34517,7 @@
       <c r="C193" s="67"/>
       <c r="D193" s="237"/>
       <c r="E193" s="200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F193" s="198"/>
       <c r="G193" s="67"/>
@@ -34508,7 +34552,7 @@
       <c r="F195" s="87"/>
       <c r="G195" s="67"/>
       <c r="H195" s="100" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I195" s="120"/>
       <c r="J195" s="125"/>
@@ -34529,13 +34573,13 @@
       </c>
       <c r="G196" s="69"/>
       <c r="H196" s="74" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I196" s="90"/>
       <c r="J196" s="137"/>
       <c r="K196" s="111"/>
     </row>
-    <row r="197" spans="1:13" s="112" customFormat="1" ht="14">
+    <row r="197" spans="1:13" s="112" customFormat="1" ht="70">
       <c r="A197" s="241"/>
       <c r="B197" s="235"/>
       <c r="C197" s="67"/>
@@ -34549,6 +34593,9 @@
       <c r="I197" s="90"/>
       <c r="J197" s="90"/>
       <c r="K197" s="111"/>
+      <c r="L197" s="256" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="198" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A198" s="241"/>
@@ -34628,11 +34675,11 @@
       </c>
       <c r="G202" s="69"/>
       <c r="H202" s="78" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I202" s="90"/>
       <c r="J202" s="90" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K202" s="111"/>
     </row>
@@ -34673,13 +34720,13 @@
       <c r="D205" s="237"/>
       <c r="E205" s="237"/>
       <c r="F205" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G205" s="71"/>
       <c r="H205" s="85"/>
       <c r="I205" s="90"/>
       <c r="J205" s="90" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K205" s="111"/>
     </row>
@@ -34689,10 +34736,10 @@
       <c r="C206" s="67"/>
       <c r="D206" s="237"/>
       <c r="E206" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F206" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F206" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G206" s="70"/>
       <c r="H206" s="198"/>
@@ -34707,13 +34754,13 @@
       <c r="D207" s="237"/>
       <c r="E207" s="237"/>
       <c r="F207" s="78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G207" s="70"/>
       <c r="H207" s="108"/>
       <c r="I207" s="90"/>
       <c r="J207" s="90" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K207" s="111"/>
     </row>
@@ -34724,7 +34771,7 @@
       <c r="D208" s="237"/>
       <c r="E208" s="237"/>
       <c r="F208" s="84" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G208" s="70"/>
       <c r="H208" s="198"/>
@@ -34739,7 +34786,7 @@
       <c r="D209" s="237"/>
       <c r="E209" s="237"/>
       <c r="F209" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G209" s="70"/>
       <c r="H209" s="198"/>
@@ -34753,10 +34800,10 @@
       <c r="C210" s="67"/>
       <c r="D210" s="237"/>
       <c r="E210" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F210" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F210" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G210" s="71"/>
       <c r="H210" s="198"/>
@@ -34771,7 +34818,7 @@
       <c r="D211" s="237"/>
       <c r="E211" s="237"/>
       <c r="F211" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G211" s="71"/>
       <c r="H211" s="198"/>
@@ -34786,7 +34833,7 @@
       <c r="D212" s="237"/>
       <c r="E212" s="237"/>
       <c r="F212" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G212" s="71"/>
       <c r="H212" s="198"/>
@@ -34801,7 +34848,7 @@
       <c r="D213" s="237"/>
       <c r="E213" s="237"/>
       <c r="F213" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G213" s="71"/>
       <c r="H213" s="198"/>
@@ -34814,15 +34861,15 @@
       <c r="B214" s="235"/>
       <c r="C214" s="67"/>
       <c r="D214" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E214" s="84" t="s">
         <v>570</v>
-      </c>
-      <c r="E214" s="84" t="s">
-        <v>571</v>
       </c>
       <c r="F214" s="198"/>
       <c r="G214" s="67"/>
       <c r="H214" s="84" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I214" s="90"/>
       <c r="J214" s="90"/>
@@ -34833,10 +34880,10 @@
       <c r="B215" s="235"/>
       <c r="C215" s="67"/>
       <c r="D215" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E215" s="77" t="s">
         <v>572</v>
-      </c>
-      <c r="E215" s="77" t="s">
-        <v>573</v>
       </c>
       <c r="F215" s="198"/>
       <c r="G215" s="67"/>
@@ -34851,7 +34898,7 @@
       <c r="C216" s="67"/>
       <c r="D216" s="237"/>
       <c r="E216" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F216" s="198"/>
       <c r="G216" s="67"/>
@@ -34866,7 +34913,7 @@
       <c r="C217" s="67"/>
       <c r="D217" s="244"/>
       <c r="E217" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F217" s="205"/>
       <c r="G217" s="67"/>
@@ -34901,7 +34948,7 @@
       <c r="F219" s="87"/>
       <c r="G219" s="67"/>
       <c r="H219" s="100" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I219" s="120"/>
       <c r="J219" s="125"/>
@@ -34922,13 +34969,13 @@
       </c>
       <c r="G220" s="69"/>
       <c r="H220" s="74" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I220" s="90" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J220" s="137" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K220" s="111"/>
     </row>
@@ -35008,7 +35055,7 @@
       <c r="H225" s="198"/>
       <c r="I225" s="90"/>
       <c r="J225" s="90" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K225" s="111"/>
     </row>
@@ -35027,7 +35074,7 @@
       </c>
       <c r="G226" s="69"/>
       <c r="H226" s="78" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I226" s="90"/>
       <c r="J226" s="90"/>
@@ -35070,13 +35117,13 @@
       <c r="D229" s="237"/>
       <c r="E229" s="237"/>
       <c r="F229" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G229" s="71"/>
       <c r="H229" s="198"/>
       <c r="I229" s="90"/>
       <c r="J229" s="90" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K229" s="111"/>
     </row>
@@ -35086,14 +35133,14 @@
       <c r="C230" s="67"/>
       <c r="D230" s="237"/>
       <c r="E230" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F230" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F230" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G230" s="70"/>
       <c r="H230" s="85" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I230" s="90"/>
       <c r="J230" s="90"/>
@@ -35106,11 +35153,11 @@
       <c r="D231" s="237"/>
       <c r="E231" s="237"/>
       <c r="F231" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G231" s="70"/>
       <c r="H231" s="76" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I231" s="90"/>
       <c r="J231" s="90"/>
@@ -35123,7 +35170,7 @@
       <c r="D232" s="237"/>
       <c r="E232" s="237"/>
       <c r="F232" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G232" s="70"/>
       <c r="H232" s="198"/>
@@ -35138,7 +35185,7 @@
       <c r="D233" s="237"/>
       <c r="E233" s="237"/>
       <c r="F233" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G233" s="70"/>
       <c r="H233" s="198"/>
@@ -35152,14 +35199,14 @@
       <c r="C234" s="67"/>
       <c r="D234" s="237"/>
       <c r="E234" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F234" s="83" t="s">
         <v>565</v>
-      </c>
-      <c r="F234" s="83" t="s">
-        <v>566</v>
       </c>
       <c r="G234" s="71"/>
       <c r="H234" s="83" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I234" s="90"/>
       <c r="J234" s="90"/>
@@ -35172,7 +35219,7 @@
       <c r="D235" s="237"/>
       <c r="E235" s="237"/>
       <c r="F235" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G235" s="71"/>
       <c r="H235" s="198"/>
@@ -35187,7 +35234,7 @@
       <c r="D236" s="237"/>
       <c r="E236" s="237"/>
       <c r="F236" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G236" s="71"/>
       <c r="H236" s="198"/>
@@ -35202,7 +35249,7 @@
       <c r="D237" s="237"/>
       <c r="E237" s="237"/>
       <c r="F237" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G237" s="71"/>
       <c r="H237" s="198"/>
@@ -35215,10 +35262,10 @@
       <c r="B238" s="235"/>
       <c r="C238" s="67"/>
       <c r="D238" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E238" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E238" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F238" s="198"/>
       <c r="G238" s="67"/>
@@ -35232,10 +35279,10 @@
       <c r="B239" s="235"/>
       <c r="C239" s="67"/>
       <c r="D239" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E239" s="83" t="s">
         <v>572</v>
-      </c>
-      <c r="E239" s="83" t="s">
-        <v>573</v>
       </c>
       <c r="F239" s="198"/>
       <c r="G239" s="67"/>
@@ -35250,7 +35297,7 @@
       <c r="C240" s="67"/>
       <c r="D240" s="237"/>
       <c r="E240" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F240" s="198"/>
       <c r="G240" s="67"/>
@@ -35265,7 +35312,7 @@
       <c r="C241" s="67"/>
       <c r="D241" s="244"/>
       <c r="E241" s="104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F241" s="205"/>
       <c r="G241" s="67"/>
@@ -35322,7 +35369,7 @@
       </c>
       <c r="G244" s="69"/>
       <c r="H244" s="74" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I244" s="90"/>
       <c r="J244" s="137"/>
@@ -35421,7 +35468,7 @@
       </c>
       <c r="G250" s="69"/>
       <c r="H250" s="78" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I250" s="90"/>
       <c r="J250" s="90"/>
@@ -35464,7 +35511,7 @@
       <c r="D253" s="237"/>
       <c r="E253" s="237"/>
       <c r="F253" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G253" s="71"/>
       <c r="H253" s="198"/>
@@ -35478,10 +35525,10 @@
       <c r="C254" s="67"/>
       <c r="D254" s="237"/>
       <c r="E254" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F254" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F254" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G254" s="70"/>
       <c r="H254" s="198"/>
@@ -35496,11 +35543,11 @@
       <c r="D255" s="237"/>
       <c r="E255" s="237"/>
       <c r="F255" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G255" s="70"/>
       <c r="H255" s="85" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I255" s="90"/>
       <c r="J255" s="90"/>
@@ -35513,7 +35560,7 @@
       <c r="D256" s="237"/>
       <c r="E256" s="237"/>
       <c r="F256" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G256" s="70"/>
       <c r="H256" s="198"/>
@@ -35528,7 +35575,7 @@
       <c r="D257" s="237"/>
       <c r="E257" s="237"/>
       <c r="F257" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G257" s="70"/>
       <c r="H257" s="198"/>
@@ -35542,10 +35589,10 @@
       <c r="C258" s="67"/>
       <c r="D258" s="237"/>
       <c r="E258" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F258" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F258" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G258" s="71"/>
       <c r="H258" s="198"/>
@@ -35560,7 +35607,7 @@
       <c r="D259" s="237"/>
       <c r="E259" s="237"/>
       <c r="F259" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G259" s="71"/>
       <c r="H259" s="198"/>
@@ -35575,7 +35622,7 @@
       <c r="D260" s="237"/>
       <c r="E260" s="237"/>
       <c r="F260" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G260" s="71"/>
       <c r="H260" s="198"/>
@@ -35590,7 +35637,7 @@
       <c r="D261" s="237"/>
       <c r="E261" s="237"/>
       <c r="F261" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G261" s="71"/>
       <c r="H261" s="198"/>
@@ -35603,15 +35650,15 @@
       <c r="B262" s="235"/>
       <c r="C262" s="67"/>
       <c r="D262" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E262" s="108" t="s">
         <v>570</v>
-      </c>
-      <c r="E262" s="108" t="s">
-        <v>571</v>
       </c>
       <c r="F262" s="198"/>
       <c r="G262" s="67"/>
       <c r="H262" s="72" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I262" s="90"/>
       <c r="J262" s="90"/>
@@ -35622,10 +35669,10 @@
       <c r="B263" s="235"/>
       <c r="C263" s="67"/>
       <c r="D263" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E263" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E263" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F263" s="198"/>
       <c r="G263" s="67"/>
@@ -35640,7 +35687,7 @@
       <c r="C264" s="67"/>
       <c r="D264" s="237"/>
       <c r="E264" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F264" s="198"/>
       <c r="G264" s="67"/>
@@ -35655,7 +35702,7 @@
       <c r="C265" s="67"/>
       <c r="D265" s="244"/>
       <c r="E265" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F265" s="205"/>
       <c r="G265" s="67"/>
@@ -35712,7 +35759,7 @@
       </c>
       <c r="G268" s="69"/>
       <c r="H268" s="74" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I268" s="90"/>
       <c r="J268" s="137"/>
@@ -35811,13 +35858,13 @@
       </c>
       <c r="G274" s="69"/>
       <c r="H274" s="200" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I274" s="90"/>
       <c r="J274" s="90"/>
       <c r="K274" s="111"/>
       <c r="L274" s="127" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="275" spans="1:12" s="112" customFormat="1" ht="14">
@@ -35831,7 +35878,7 @@
       </c>
       <c r="G275" s="69"/>
       <c r="H275" s="78" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I275" s="90"/>
       <c r="J275" s="90"/>
@@ -35859,7 +35906,7 @@
       <c r="D277" s="237"/>
       <c r="E277" s="237"/>
       <c r="F277" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G277" s="71"/>
       <c r="H277" s="198"/>
@@ -35873,10 +35920,10 @@
       <c r="C278" s="67"/>
       <c r="D278" s="237"/>
       <c r="E278" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F278" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F278" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G278" s="70"/>
       <c r="H278" s="198"/>
@@ -35891,7 +35938,7 @@
       <c r="D279" s="237"/>
       <c r="E279" s="237"/>
       <c r="F279" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G279" s="70"/>
       <c r="H279" s="198"/>
@@ -35906,7 +35953,7 @@
       <c r="D280" s="237"/>
       <c r="E280" s="237"/>
       <c r="F280" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G280" s="70"/>
       <c r="H280" s="198"/>
@@ -35921,11 +35968,11 @@
       <c r="D281" s="237"/>
       <c r="E281" s="237"/>
       <c r="F281" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G281" s="70"/>
       <c r="H281" s="76" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I281" s="90"/>
       <c r="J281" s="90"/>
@@ -35937,10 +35984,10 @@
       <c r="C282" s="67"/>
       <c r="D282" s="237"/>
       <c r="E282" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F282" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F282" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G282" s="71"/>
       <c r="H282" s="198"/>
@@ -35955,7 +36002,7 @@
       <c r="D283" s="237"/>
       <c r="E283" s="237"/>
       <c r="F283" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G283" s="71"/>
       <c r="H283" s="198"/>
@@ -35970,7 +36017,7 @@
       <c r="D284" s="237"/>
       <c r="E284" s="237"/>
       <c r="F284" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G284" s="71"/>
       <c r="H284" s="198"/>
@@ -35985,7 +36032,7 @@
       <c r="D285" s="237"/>
       <c r="E285" s="237"/>
       <c r="F285" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G285" s="71"/>
       <c r="H285" s="198"/>
@@ -35998,10 +36045,10 @@
       <c r="B286" s="235"/>
       <c r="C286" s="67"/>
       <c r="D286" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E286" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E286" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F286" s="198"/>
       <c r="G286" s="67"/>
@@ -36015,10 +36062,10 @@
       <c r="B287" s="235"/>
       <c r="C287" s="67"/>
       <c r="D287" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E287" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E287" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F287" s="198"/>
       <c r="G287" s="67"/>
@@ -36033,7 +36080,7 @@
       <c r="C288" s="67"/>
       <c r="D288" s="237"/>
       <c r="E288" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F288" s="198"/>
       <c r="G288" s="67"/>
@@ -36048,7 +36095,7 @@
       <c r="C289" s="67"/>
       <c r="D289" s="244"/>
       <c r="E289" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F289" s="205"/>
       <c r="G289" s="67"/>
@@ -36083,7 +36130,7 @@
       <c r="F291" s="87"/>
       <c r="G291" s="67"/>
       <c r="H291" s="100" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I291" s="120"/>
       <c r="J291" s="91"/>
@@ -36104,7 +36151,7 @@
       </c>
       <c r="G292" s="69"/>
       <c r="H292" s="74" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I292" s="90"/>
       <c r="J292" s="142"/>
@@ -36233,7 +36280,7 @@
       </c>
       <c r="G300" s="70"/>
       <c r="H300" s="78" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I300" s="90"/>
       <c r="J300" s="90"/>
@@ -36246,7 +36293,7 @@
       <c r="D301" s="237"/>
       <c r="E301" s="237"/>
       <c r="F301" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G301" s="71"/>
       <c r="H301" s="198"/>
@@ -36260,14 +36307,14 @@
       <c r="C302" s="67"/>
       <c r="D302" s="237"/>
       <c r="E302" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F302" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F302" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G302" s="70"/>
       <c r="H302" s="85" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I302" s="90"/>
       <c r="J302" s="90"/>
@@ -36280,7 +36327,7 @@
       <c r="D303" s="237"/>
       <c r="E303" s="237"/>
       <c r="F303" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G303" s="70"/>
       <c r="H303" s="198"/>
@@ -36295,7 +36342,7 @@
       <c r="D304" s="237"/>
       <c r="E304" s="237"/>
       <c r="F304" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G304" s="70"/>
       <c r="H304" s="198"/>
@@ -36310,11 +36357,11 @@
       <c r="D305" s="237"/>
       <c r="E305" s="237"/>
       <c r="F305" s="83" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G305" s="70"/>
       <c r="H305" s="83" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I305" s="90"/>
       <c r="J305" s="90"/>
@@ -36326,10 +36373,10 @@
       <c r="C306" s="67"/>
       <c r="D306" s="237"/>
       <c r="E306" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F306" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F306" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G306" s="71"/>
       <c r="H306" s="198"/>
@@ -36344,7 +36391,7 @@
       <c r="D307" s="237"/>
       <c r="E307" s="237"/>
       <c r="F307" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G307" s="71"/>
       <c r="H307" s="198"/>
@@ -36359,7 +36406,7 @@
       <c r="D308" s="237"/>
       <c r="E308" s="237"/>
       <c r="F308" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G308" s="71"/>
       <c r="H308" s="198"/>
@@ -36374,7 +36421,7 @@
       <c r="D309" s="237"/>
       <c r="E309" s="237"/>
       <c r="F309" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G309" s="71"/>
       <c r="H309" s="198"/>
@@ -36387,15 +36434,15 @@
       <c r="B310" s="235"/>
       <c r="C310" s="67"/>
       <c r="D310" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E310" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E310" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F310" s="198"/>
       <c r="G310" s="67"/>
       <c r="H310" s="72" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I310" s="90"/>
       <c r="J310" s="90"/>
@@ -36406,10 +36453,10 @@
       <c r="B311" s="235"/>
       <c r="C311" s="67"/>
       <c r="D311" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E311" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E311" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F311" s="198"/>
       <c r="G311" s="67"/>
@@ -36424,7 +36471,7 @@
       <c r="C312" s="67"/>
       <c r="D312" s="237"/>
       <c r="E312" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F312" s="198"/>
       <c r="G312" s="67"/>
@@ -36439,7 +36486,7 @@
       <c r="C313" s="67"/>
       <c r="D313" s="244"/>
       <c r="E313" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F313" s="205"/>
       <c r="G313" s="67"/>
@@ -36496,7 +36543,7 @@
       </c>
       <c r="G316" s="69"/>
       <c r="H316" s="74" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I316" s="90"/>
       <c r="J316" s="137"/>
@@ -36565,7 +36612,7 @@
       <c r="K320" s="111"/>
       <c r="M320" s="113"/>
     </row>
-    <row r="321" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="321" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A321" s="234"/>
       <c r="B321" s="235"/>
       <c r="C321" s="67"/>
@@ -36580,7 +36627,7 @@
       <c r="J321" s="90"/>
       <c r="K321" s="111"/>
     </row>
-    <row r="322" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="322" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A322" s="234"/>
       <c r="B322" s="235"/>
       <c r="C322" s="67"/>
@@ -36595,13 +36642,16 @@
       </c>
       <c r="G322" s="69"/>
       <c r="H322" s="85" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I322" s="90"/>
       <c r="J322" s="90"/>
       <c r="K322" s="111"/>
-    </row>
-    <row r="323" spans="1:11" s="112" customFormat="1" ht="14">
+      <c r="L322" s="127" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A323" s="234"/>
       <c r="B323" s="235"/>
       <c r="C323" s="67"/>
@@ -36616,7 +36666,7 @@
       <c r="J323" s="90"/>
       <c r="K323" s="111"/>
     </row>
-    <row r="324" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="324" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A324" s="234"/>
       <c r="B324" s="235"/>
       <c r="C324" s="67"/>
@@ -36631,14 +36681,14 @@
       <c r="J324" s="90"/>
       <c r="K324" s="111"/>
     </row>
-    <row r="325" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="325" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A325" s="234"/>
       <c r="B325" s="235"/>
       <c r="C325" s="67"/>
       <c r="D325" s="237"/>
       <c r="E325" s="237"/>
       <c r="F325" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G325" s="71"/>
       <c r="H325" s="198"/>
@@ -36646,16 +36696,16 @@
       <c r="J325" s="90"/>
       <c r="K325" s="111"/>
     </row>
-    <row r="326" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="326" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A326" s="234"/>
       <c r="B326" s="235"/>
       <c r="C326" s="67"/>
       <c r="D326" s="237"/>
       <c r="E326" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F326" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F326" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G326" s="70"/>
       <c r="H326" s="198"/>
@@ -36663,14 +36713,14 @@
       <c r="J326" s="90"/>
       <c r="K326" s="111"/>
     </row>
-    <row r="327" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="327" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A327" s="234"/>
       <c r="B327" s="235"/>
       <c r="C327" s="67"/>
       <c r="D327" s="237"/>
       <c r="E327" s="237"/>
       <c r="F327" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G327" s="70"/>
       <c r="H327" s="198"/>
@@ -36678,14 +36728,14 @@
       <c r="J327" s="90"/>
       <c r="K327" s="111"/>
     </row>
-    <row r="328" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="328" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A328" s="234"/>
       <c r="B328" s="235"/>
       <c r="C328" s="67"/>
       <c r="D328" s="237"/>
       <c r="E328" s="237"/>
       <c r="F328" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G328" s="70"/>
       <c r="H328" s="198"/>
@@ -36693,14 +36743,14 @@
       <c r="J328" s="90"/>
       <c r="K328" s="111"/>
     </row>
-    <row r="329" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="329" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A329" s="234"/>
       <c r="B329" s="235"/>
       <c r="C329" s="67"/>
       <c r="D329" s="237"/>
       <c r="E329" s="237"/>
       <c r="F329" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G329" s="70"/>
       <c r="H329" s="198"/>
@@ -36708,16 +36758,16 @@
       <c r="J329" s="90"/>
       <c r="K329" s="111"/>
     </row>
-    <row r="330" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="330" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A330" s="234"/>
       <c r="B330" s="235"/>
       <c r="C330" s="67"/>
       <c r="D330" s="237"/>
       <c r="E330" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F330" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F330" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G330" s="71"/>
       <c r="H330" s="198"/>
@@ -36725,14 +36775,14 @@
       <c r="J330" s="90"/>
       <c r="K330" s="111"/>
     </row>
-    <row r="331" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="331" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A331" s="234"/>
       <c r="B331" s="235"/>
       <c r="C331" s="67"/>
       <c r="D331" s="237"/>
       <c r="E331" s="237"/>
       <c r="F331" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G331" s="71"/>
       <c r="H331" s="198"/>
@@ -36740,14 +36790,14 @@
       <c r="J331" s="90"/>
       <c r="K331" s="111"/>
     </row>
-    <row r="332" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="332" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A332" s="234"/>
       <c r="B332" s="235"/>
       <c r="C332" s="67"/>
       <c r="D332" s="237"/>
       <c r="E332" s="237"/>
       <c r="F332" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G332" s="71"/>
       <c r="H332" s="198"/>
@@ -36755,14 +36805,14 @@
       <c r="J332" s="90"/>
       <c r="K332" s="111"/>
     </row>
-    <row r="333" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="333" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A333" s="234"/>
       <c r="B333" s="235"/>
       <c r="C333" s="67"/>
       <c r="D333" s="237"/>
       <c r="E333" s="237"/>
       <c r="F333" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G333" s="71"/>
       <c r="H333" s="198"/>
@@ -36770,15 +36820,15 @@
       <c r="J333" s="90"/>
       <c r="K333" s="111"/>
     </row>
-    <row r="334" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="334" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A334" s="234"/>
       <c r="B334" s="235"/>
       <c r="C334" s="67"/>
       <c r="D334" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E334" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E334" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F334" s="198"/>
       <c r="G334" s="67"/>
@@ -36787,15 +36837,15 @@
       <c r="J334" s="90"/>
       <c r="K334" s="111"/>
     </row>
-    <row r="335" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="335" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A335" s="234"/>
       <c r="B335" s="235"/>
       <c r="C335" s="67"/>
       <c r="D335" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E335" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E335" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F335" s="198"/>
       <c r="G335" s="67"/>
@@ -36804,13 +36854,13 @@
       <c r="J335" s="90"/>
       <c r="K335" s="111"/>
     </row>
-    <row r="336" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="336" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A336" s="234"/>
       <c r="B336" s="235"/>
       <c r="C336" s="67"/>
       <c r="D336" s="237"/>
       <c r="E336" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F336" s="198"/>
       <c r="G336" s="67"/>
@@ -36825,12 +36875,12 @@
       <c r="C337" s="67"/>
       <c r="D337" s="249"/>
       <c r="E337" s="143" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F337" s="205"/>
       <c r="G337" s="67"/>
       <c r="H337" s="143" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I337" s="122"/>
       <c r="J337" s="122"/>
@@ -36862,7 +36912,7 @@
       <c r="F339" s="87"/>
       <c r="G339" s="67"/>
       <c r="H339" s="100" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I339" s="120"/>
       <c r="J339" s="91"/>
@@ -36883,7 +36933,7 @@
       </c>
       <c r="G340" s="69"/>
       <c r="H340" s="144" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I340" s="90"/>
       <c r="J340" s="142"/>
@@ -36901,10 +36951,10 @@
       <c r="G341" s="69"/>
       <c r="H341" s="198"/>
       <c r="I341" s="90" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J341" s="90" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K341" s="111"/>
     </row>
@@ -37001,13 +37051,13 @@
       </c>
       <c r="G347" s="69"/>
       <c r="H347" s="145" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I347" s="90" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J347" s="90" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K347" s="111"/>
     </row>
@@ -37033,7 +37083,7 @@
       <c r="D349" s="237"/>
       <c r="E349" s="237"/>
       <c r="F349" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G349" s="71"/>
       <c r="H349" s="198"/>
@@ -37047,10 +37097,10 @@
       <c r="C350" s="67"/>
       <c r="D350" s="237"/>
       <c r="E350" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F350" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F350" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G350" s="70"/>
       <c r="H350" s="198"/>
@@ -37065,17 +37115,17 @@
       <c r="D351" s="237"/>
       <c r="E351" s="237"/>
       <c r="F351" s="78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G351" s="70"/>
       <c r="H351" s="146" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I351" s="90" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J351" s="90" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K351" s="111"/>
     </row>
@@ -37086,7 +37136,7 @@
       <c r="D352" s="237"/>
       <c r="E352" s="237"/>
       <c r="F352" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G352" s="70"/>
       <c r="H352" s="198"/>
@@ -37101,7 +37151,7 @@
       <c r="D353" s="237"/>
       <c r="E353" s="237"/>
       <c r="F353" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G353" s="70"/>
       <c r="H353" s="198"/>
@@ -37115,10 +37165,10 @@
       <c r="C354" s="67"/>
       <c r="D354" s="237"/>
       <c r="E354" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F354" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F354" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G354" s="71"/>
       <c r="H354" s="198"/>
@@ -37133,7 +37183,7 @@
       <c r="D355" s="237"/>
       <c r="E355" s="237"/>
       <c r="F355" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G355" s="71"/>
       <c r="H355" s="198"/>
@@ -37148,7 +37198,7 @@
       <c r="D356" s="237"/>
       <c r="E356" s="237"/>
       <c r="F356" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G356" s="71"/>
       <c r="H356" s="198"/>
@@ -37163,7 +37213,7 @@
       <c r="D357" s="237"/>
       <c r="E357" s="237"/>
       <c r="F357" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G357" s="71"/>
       <c r="H357" s="198"/>
@@ -37176,21 +37226,21 @@
       <c r="B358" s="235"/>
       <c r="C358" s="67"/>
       <c r="D358" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E358" s="108" t="s">
         <v>570</v>
-      </c>
-      <c r="E358" s="108" t="s">
-        <v>571</v>
       </c>
       <c r="F358" s="198"/>
       <c r="G358" s="67"/>
       <c r="H358" s="72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I358" s="90" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J358" s="90" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K358" s="111"/>
     </row>
@@ -37199,10 +37249,10 @@
       <c r="B359" s="235"/>
       <c r="C359" s="67"/>
       <c r="D359" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E359" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E359" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F359" s="198"/>
       <c r="G359" s="67"/>
@@ -37217,7 +37267,7 @@
       <c r="C360" s="67"/>
       <c r="D360" s="237"/>
       <c r="E360" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F360" s="198"/>
       <c r="G360" s="67"/>
@@ -37232,7 +37282,7 @@
       <c r="C361" s="67"/>
       <c r="D361" s="237"/>
       <c r="E361" s="132" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F361" s="198"/>
       <c r="G361" s="67"/>
@@ -37269,7 +37319,7 @@
       <c r="F363" s="135"/>
       <c r="G363" s="67"/>
       <c r="H363" s="92" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I363" s="90"/>
       <c r="J363" s="91"/>
@@ -37290,7 +37340,7 @@
       </c>
       <c r="G364" s="69"/>
       <c r="H364" s="74" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I364" s="90"/>
       <c r="J364" s="138"/>
@@ -37307,7 +37357,7 @@
       </c>
       <c r="G365" s="69"/>
       <c r="H365" s="145" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I365" s="90"/>
       <c r="J365" s="90"/>
@@ -37391,13 +37441,13 @@
       </c>
       <c r="G370" s="69"/>
       <c r="H370" s="148" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I370" s="90" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="J370" s="90" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K370" s="111"/>
     </row>
@@ -37416,7 +37466,7 @@
       <c r="J371" s="90"/>
       <c r="K371" s="111"/>
       <c r="L371" s="114" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="372" spans="1:12" s="112" customFormat="1" ht="14">
@@ -37441,7 +37491,7 @@
       <c r="D373" s="237"/>
       <c r="E373" s="237"/>
       <c r="F373" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G373" s="71"/>
       <c r="H373" s="198"/>
@@ -37455,14 +37505,14 @@
       <c r="C374" s="67"/>
       <c r="D374" s="237"/>
       <c r="E374" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F374" s="108" t="s">
         <v>560</v>
-      </c>
-      <c r="F374" s="108" t="s">
-        <v>561</v>
       </c>
       <c r="G374" s="70"/>
       <c r="H374" s="150" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I374" s="90"/>
       <c r="J374" s="90"/>
@@ -37475,7 +37525,7 @@
       <c r="D375" s="237"/>
       <c r="E375" s="237"/>
       <c r="F375" s="108" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G375" s="70"/>
       <c r="H375" s="198"/>
@@ -37490,7 +37540,7 @@
       <c r="D376" s="237"/>
       <c r="E376" s="237"/>
       <c r="F376" s="108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G376" s="70"/>
       <c r="H376" s="198"/>
@@ -37505,7 +37555,7 @@
       <c r="D377" s="237"/>
       <c r="E377" s="237"/>
       <c r="F377" s="108" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G377" s="70"/>
       <c r="H377" s="198"/>
@@ -37519,10 +37569,10 @@
       <c r="C378" s="67"/>
       <c r="D378" s="237"/>
       <c r="E378" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F378" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F378" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G378" s="71"/>
       <c r="H378" s="198"/>
@@ -37537,7 +37587,7 @@
       <c r="D379" s="237"/>
       <c r="E379" s="237"/>
       <c r="F379" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G379" s="71"/>
       <c r="H379" s="198"/>
@@ -37552,7 +37602,7 @@
       <c r="D380" s="237"/>
       <c r="E380" s="237"/>
       <c r="F380" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G380" s="71"/>
       <c r="H380" s="198"/>
@@ -37567,7 +37617,7 @@
       <c r="D381" s="237"/>
       <c r="E381" s="237"/>
       <c r="F381" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G381" s="71"/>
       <c r="H381" s="198"/>
@@ -37580,10 +37630,10 @@
       <c r="B382" s="235"/>
       <c r="C382" s="67"/>
       <c r="D382" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E382" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E382" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F382" s="198"/>
       <c r="G382" s="67"/>
@@ -37597,10 +37647,10 @@
       <c r="B383" s="235"/>
       <c r="C383" s="67"/>
       <c r="D383" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E383" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E383" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F383" s="198"/>
       <c r="G383" s="67"/>
@@ -37615,7 +37665,7 @@
       <c r="C384" s="67"/>
       <c r="D384" s="237"/>
       <c r="E384" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F384" s="198"/>
       <c r="G384" s="67"/>
@@ -37630,7 +37680,7 @@
       <c r="C385" s="67"/>
       <c r="D385" s="244"/>
       <c r="E385" s="203" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F385" s="205"/>
       <c r="G385" s="67"/>
@@ -37669,10 +37719,10 @@
         <v>535</v>
       </c>
       <c r="I387" s="120" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J387" s="91" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K387" s="117"/>
     </row>
@@ -37691,13 +37741,13 @@
       </c>
       <c r="G388" s="69"/>
       <c r="H388" s="198" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I388" s="90"/>
       <c r="J388" s="142"/>
       <c r="K388" s="111"/>
       <c r="L388" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="389" spans="1:13" s="112" customFormat="1" ht="14">
@@ -37711,11 +37761,11 @@
       </c>
       <c r="G389" s="69"/>
       <c r="H389" s="145" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I389" s="90"/>
       <c r="J389" s="90" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K389" s="111"/>
     </row>
@@ -37812,13 +37862,13 @@
       </c>
       <c r="G395" s="69"/>
       <c r="H395" s="160" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I395" s="90" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J395" s="90" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="K395" s="111"/>
     </row>
@@ -37833,7 +37883,7 @@
       </c>
       <c r="G396" s="70"/>
       <c r="H396" s="78" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I396" s="90"/>
       <c r="J396" s="90"/>
@@ -37846,7 +37896,7 @@
       <c r="D397" s="237"/>
       <c r="E397" s="237"/>
       <c r="F397" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G397" s="71"/>
       <c r="H397" s="198"/>
@@ -37860,10 +37910,10 @@
       <c r="C398" s="67"/>
       <c r="D398" s="237"/>
       <c r="E398" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F398" s="161" t="s">
         <v>560</v>
-      </c>
-      <c r="F398" s="161" t="s">
-        <v>561</v>
       </c>
       <c r="G398" s="70"/>
       <c r="H398" s="198"/>
@@ -37878,7 +37928,7 @@
       <c r="D399" s="237"/>
       <c r="E399" s="237"/>
       <c r="F399" s="148" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G399" s="70"/>
       <c r="H399" s="198"/>
@@ -37893,7 +37943,7 @@
       <c r="D400" s="237"/>
       <c r="E400" s="237"/>
       <c r="F400" s="161" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G400" s="70"/>
       <c r="H400" s="198"/>
@@ -37908,7 +37958,7 @@
       <c r="D401" s="237"/>
       <c r="E401" s="237"/>
       <c r="F401" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G401" s="70"/>
       <c r="H401" s="198"/>
@@ -37922,10 +37972,10 @@
       <c r="C402" s="67"/>
       <c r="D402" s="237"/>
       <c r="E402" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F402" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F402" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G402" s="71"/>
       <c r="H402" s="198"/>
@@ -37940,7 +37990,7 @@
       <c r="D403" s="237"/>
       <c r="E403" s="237"/>
       <c r="F403" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G403" s="71"/>
       <c r="H403" s="198"/>
@@ -37955,7 +38005,7 @@
       <c r="D404" s="237"/>
       <c r="E404" s="237"/>
       <c r="F404" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G404" s="71"/>
       <c r="H404" s="198"/>
@@ -37970,7 +38020,7 @@
       <c r="D405" s="237"/>
       <c r="E405" s="237"/>
       <c r="F405" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G405" s="71"/>
       <c r="H405" s="198"/>
@@ -37983,15 +38033,15 @@
       <c r="B406" s="235"/>
       <c r="C406" s="67"/>
       <c r="D406" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E406" s="108" t="s">
         <v>570</v>
-      </c>
-      <c r="E406" s="108" t="s">
-        <v>571</v>
       </c>
       <c r="F406" s="198"/>
       <c r="G406" s="67"/>
       <c r="H406" s="72" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I406" s="90"/>
       <c r="J406" s="90"/>
@@ -38002,10 +38052,10 @@
       <c r="B407" s="235"/>
       <c r="C407" s="67"/>
       <c r="D407" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E407" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E407" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F407" s="198"/>
       <c r="G407" s="67"/>
@@ -38020,7 +38070,7 @@
       <c r="C408" s="67"/>
       <c r="D408" s="237"/>
       <c r="E408" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F408" s="205"/>
       <c r="G408" s="67"/>
@@ -38035,7 +38085,7 @@
       <c r="C409" s="67"/>
       <c r="D409" s="251"/>
       <c r="E409" s="178" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F409" s="181"/>
       <c r="G409" s="67"/>
@@ -38072,7 +38122,7 @@
         <v>535</v>
       </c>
       <c r="I411" s="155" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J411" s="156"/>
     </row>
@@ -38091,7 +38141,7 @@
       </c>
       <c r="G412" s="69"/>
       <c r="H412" s="106" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I412" s="120"/>
       <c r="J412" s="151"/>
@@ -38160,7 +38210,7 @@
       <c r="K416" s="111"/>
       <c r="M416" s="113"/>
     </row>
-    <row r="417" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="417" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A417" s="239"/>
       <c r="B417" s="235"/>
       <c r="C417" s="67"/>
@@ -38175,7 +38225,7 @@
       <c r="J417" s="90"/>
       <c r="K417" s="111"/>
     </row>
-    <row r="418" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="418" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A418" s="239"/>
       <c r="B418" s="235"/>
       <c r="C418" s="67"/>
@@ -38194,7 +38244,7 @@
       <c r="J418" s="90"/>
       <c r="K418" s="111"/>
     </row>
-    <row r="419" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="419" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A419" s="239"/>
       <c r="B419" s="235"/>
       <c r="C419" s="67"/>
@@ -38206,14 +38256,17 @@
       <c r="G419" s="69"/>
       <c r="H419" s="198"/>
       <c r="I419" s="90" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J419" s="90" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K419" s="111"/>
-    </row>
-    <row r="420" spans="1:11" s="112" customFormat="1" ht="14">
+      <c r="L419" s="127" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A420" s="239"/>
       <c r="B420" s="235"/>
       <c r="C420" s="67"/>
@@ -38228,14 +38281,14 @@
       <c r="J420" s="90"/>
       <c r="K420" s="111"/>
     </row>
-    <row r="421" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="421" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A421" s="239"/>
       <c r="B421" s="235"/>
       <c r="C421" s="67"/>
       <c r="D421" s="237"/>
       <c r="E421" s="237"/>
       <c r="F421" s="77" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G421" s="71"/>
       <c r="H421" s="205"/>
@@ -38243,33 +38296,33 @@
       <c r="J421" s="90"/>
       <c r="K421" s="111"/>
     </row>
-    <row r="422" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="422" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A422" s="239"/>
       <c r="B422" s="235"/>
       <c r="C422" s="67"/>
       <c r="D422" s="237"/>
       <c r="E422" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F422" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F422" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G422" s="70"/>
       <c r="H422" s="177" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I422" s="124"/>
       <c r="J422" s="90"/>
       <c r="K422" s="111"/>
     </row>
-    <row r="423" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="423" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A423" s="239"/>
       <c r="B423" s="235"/>
       <c r="C423" s="67"/>
       <c r="D423" s="237"/>
       <c r="E423" s="237"/>
       <c r="F423" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G423" s="70"/>
       <c r="H423" s="204"/>
@@ -38277,14 +38330,14 @@
       <c r="J423" s="90"/>
       <c r="K423" s="111"/>
     </row>
-    <row r="424" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="424" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A424" s="239"/>
       <c r="B424" s="235"/>
       <c r="C424" s="67"/>
       <c r="D424" s="237"/>
       <c r="E424" s="237"/>
       <c r="F424" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G424" s="70"/>
       <c r="H424" s="198"/>
@@ -38292,14 +38345,14 @@
       <c r="J424" s="90"/>
       <c r="K424" s="111"/>
     </row>
-    <row r="425" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="425" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A425" s="239"/>
       <c r="B425" s="235"/>
       <c r="C425" s="67"/>
       <c r="D425" s="237"/>
       <c r="E425" s="237"/>
       <c r="F425" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G425" s="70"/>
       <c r="H425" s="198"/>
@@ -38307,16 +38360,16 @@
       <c r="J425" s="90"/>
       <c r="K425" s="111"/>
     </row>
-    <row r="426" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="426" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A426" s="239"/>
       <c r="B426" s="235"/>
       <c r="C426" s="67"/>
       <c r="D426" s="237"/>
       <c r="E426" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F426" s="77" t="s">
         <v>565</v>
-      </c>
-      <c r="F426" s="77" t="s">
-        <v>566</v>
       </c>
       <c r="G426" s="71"/>
       <c r="H426" s="198"/>
@@ -38324,14 +38377,14 @@
       <c r="J426" s="90"/>
       <c r="K426" s="111"/>
     </row>
-    <row r="427" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="427" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A427" s="239"/>
       <c r="B427" s="235"/>
       <c r="C427" s="67"/>
       <c r="D427" s="237"/>
       <c r="E427" s="237"/>
       <c r="F427" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G427" s="71"/>
       <c r="H427" s="198"/>
@@ -38339,14 +38392,14 @@
       <c r="J427" s="90"/>
       <c r="K427" s="111"/>
     </row>
-    <row r="428" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="428" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A428" s="239"/>
       <c r="B428" s="235"/>
       <c r="C428" s="67"/>
       <c r="D428" s="237"/>
       <c r="E428" s="237"/>
       <c r="F428" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G428" s="71"/>
       <c r="H428" s="198"/>
@@ -38354,14 +38407,14 @@
       <c r="J428" s="90"/>
       <c r="K428" s="111"/>
     </row>
-    <row r="429" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="429" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A429" s="239"/>
       <c r="B429" s="235"/>
       <c r="C429" s="67"/>
       <c r="D429" s="237"/>
       <c r="E429" s="237"/>
       <c r="F429" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G429" s="71"/>
       <c r="H429" s="198"/>
@@ -38369,34 +38422,34 @@
       <c r="J429" s="90"/>
       <c r="K429" s="111"/>
     </row>
-    <row r="430" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="430" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A430" s="239"/>
       <c r="B430" s="235"/>
       <c r="C430" s="67"/>
       <c r="D430" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E430" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E430" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F430" s="198"/>
       <c r="G430" s="67"/>
       <c r="H430" s="76" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I430" s="90"/>
       <c r="J430" s="90"/>
       <c r="K430" s="111"/>
     </row>
-    <row r="431" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="431" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A431" s="239"/>
       <c r="B431" s="235"/>
       <c r="C431" s="67"/>
       <c r="D431" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E431" s="77" t="s">
         <v>572</v>
-      </c>
-      <c r="E431" s="77" t="s">
-        <v>573</v>
       </c>
       <c r="F431" s="198"/>
       <c r="G431" s="67"/>
@@ -38405,19 +38458,19 @@
       <c r="J431" s="90"/>
       <c r="K431" s="111"/>
     </row>
-    <row r="432" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="432" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A432" s="239"/>
       <c r="B432" s="235"/>
       <c r="C432" s="67"/>
       <c r="D432" s="237"/>
       <c r="E432" s="163" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F432" s="205"/>
       <c r="G432" s="67"/>
       <c r="H432" s="205"/>
       <c r="I432" s="122" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J432" s="122"/>
       <c r="K432" s="111"/>
@@ -38428,7 +38481,7 @@
       <c r="C433" s="67"/>
       <c r="D433" s="251"/>
       <c r="E433" s="165" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F433" s="157"/>
       <c r="G433" s="67"/>
@@ -38484,13 +38537,13 @@
       </c>
       <c r="G436" s="69"/>
       <c r="H436" s="106" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I436" s="120" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J436" s="151" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K436" s="111"/>
     </row>
@@ -38617,7 +38670,7 @@
       </c>
       <c r="G444" s="70"/>
       <c r="H444" s="78" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I444" s="90"/>
       <c r="J444" s="90"/>
@@ -38630,7 +38683,7 @@
       <c r="D445" s="237"/>
       <c r="E445" s="237"/>
       <c r="F445" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G445" s="71"/>
       <c r="H445" s="198"/>
@@ -38644,10 +38697,10 @@
       <c r="C446" s="67"/>
       <c r="D446" s="237"/>
       <c r="E446" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F446" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F446" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G446" s="70"/>
       <c r="H446" s="198"/>
@@ -38662,7 +38715,7 @@
       <c r="D447" s="237"/>
       <c r="E447" s="237"/>
       <c r="F447" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G447" s="70"/>
       <c r="H447" s="198"/>
@@ -38677,7 +38730,7 @@
       <c r="D448" s="237"/>
       <c r="E448" s="237"/>
       <c r="F448" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G448" s="70"/>
       <c r="H448" s="198"/>
@@ -38692,7 +38745,7 @@
       <c r="D449" s="237"/>
       <c r="E449" s="237"/>
       <c r="F449" s="148" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G449" s="70"/>
       <c r="H449" s="198"/>
@@ -38706,10 +38759,10 @@
       <c r="C450" s="67"/>
       <c r="D450" s="237"/>
       <c r="E450" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F450" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F450" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G450" s="71"/>
       <c r="H450" s="198"/>
@@ -38724,7 +38777,7 @@
       <c r="D451" s="237"/>
       <c r="E451" s="237"/>
       <c r="F451" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G451" s="71"/>
       <c r="H451" s="198"/>
@@ -38739,7 +38792,7 @@
       <c r="D452" s="237"/>
       <c r="E452" s="237"/>
       <c r="F452" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G452" s="71"/>
       <c r="H452" s="198"/>
@@ -38754,7 +38807,7 @@
       <c r="D453" s="237"/>
       <c r="E453" s="237"/>
       <c r="F453" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G453" s="71"/>
       <c r="H453" s="198"/>
@@ -38767,15 +38820,15 @@
       <c r="B454" s="235"/>
       <c r="C454" s="67"/>
       <c r="D454" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E454" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E454" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F454" s="198"/>
       <c r="G454" s="67"/>
       <c r="H454" s="72" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="I454" s="90"/>
       <c r="J454" s="90"/>
@@ -38786,10 +38839,10 @@
       <c r="B455" s="235"/>
       <c r="C455" s="67"/>
       <c r="D455" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E455" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E455" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F455" s="198"/>
       <c r="G455" s="67"/>
@@ -38804,7 +38857,7 @@
       <c r="C456" s="67"/>
       <c r="D456" s="237"/>
       <c r="E456" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F456" s="205"/>
       <c r="G456" s="67"/>
@@ -38819,7 +38872,7 @@
       <c r="C457" s="67"/>
       <c r="D457" s="251"/>
       <c r="E457" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F457" s="157"/>
       <c r="G457" s="67"/>
@@ -38853,7 +38906,7 @@
       <c r="F459" s="133"/>
       <c r="G459" s="67"/>
       <c r="H459" s="153" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="I459" s="155"/>
       <c r="J459" s="156"/>
@@ -38874,7 +38927,7 @@
       </c>
       <c r="G460" s="69"/>
       <c r="H460" s="106" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I460" s="120"/>
       <c r="J460" s="151"/>
@@ -38973,10 +39026,10 @@
       </c>
       <c r="G466" s="69"/>
       <c r="H466" s="85" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I466" s="90" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J466" s="90"/>
       <c r="K466" s="111"/>
@@ -38992,10 +39045,10 @@
       </c>
       <c r="G467" s="69"/>
       <c r="H467" s="160" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I467" s="90" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J467" s="90"/>
       <c r="K467" s="111"/>
@@ -39022,7 +39075,7 @@
       <c r="D469" s="237"/>
       <c r="E469" s="237"/>
       <c r="F469" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G469" s="71"/>
       <c r="H469" s="198"/>
@@ -39036,10 +39089,10 @@
       <c r="C470" s="67"/>
       <c r="D470" s="237"/>
       <c r="E470" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F470" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F470" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G470" s="70"/>
       <c r="H470" s="198"/>
@@ -39054,11 +39107,11 @@
       <c r="D471" s="237"/>
       <c r="E471" s="237"/>
       <c r="F471" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G471" s="70"/>
       <c r="H471" s="168" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I471" s="90"/>
       <c r="J471" s="90"/>
@@ -39071,7 +39124,7 @@
       <c r="D472" s="237"/>
       <c r="E472" s="237"/>
       <c r="F472" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G472" s="70"/>
       <c r="H472" s="198"/>
@@ -39086,7 +39139,7 @@
       <c r="D473" s="237"/>
       <c r="E473" s="237"/>
       <c r="F473" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G473" s="70"/>
       <c r="H473" s="198"/>
@@ -39100,10 +39153,10 @@
       <c r="C474" s="67"/>
       <c r="D474" s="237"/>
       <c r="E474" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F474" s="76" t="s">
         <v>565</v>
-      </c>
-      <c r="F474" s="76" t="s">
-        <v>566</v>
       </c>
       <c r="G474" s="71"/>
       <c r="H474" s="198"/>
@@ -39118,7 +39171,7 @@
       <c r="D475" s="237"/>
       <c r="E475" s="237"/>
       <c r="F475" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G475" s="71"/>
       <c r="H475" s="198"/>
@@ -39133,7 +39186,7 @@
       <c r="D476" s="237"/>
       <c r="E476" s="237"/>
       <c r="F476" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G476" s="71"/>
       <c r="H476" s="198"/>
@@ -39148,7 +39201,7 @@
       <c r="D477" s="237"/>
       <c r="E477" s="237"/>
       <c r="F477" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G477" s="71"/>
       <c r="H477" s="198"/>
@@ -39161,10 +39214,10 @@
       <c r="B478" s="235"/>
       <c r="C478" s="67"/>
       <c r="D478" s="203" t="s">
+        <v>569</v>
+      </c>
+      <c r="E478" s="170" t="s">
         <v>570</v>
-      </c>
-      <c r="E478" s="170" t="s">
-        <v>571</v>
       </c>
       <c r="F478" s="205"/>
       <c r="G478" s="67"/>
@@ -39178,10 +39231,10 @@
       <c r="B479" s="235"/>
       <c r="C479" s="67"/>
       <c r="D479" s="247" t="s">
+        <v>571</v>
+      </c>
+      <c r="E479" s="169" t="s">
         <v>572</v>
-      </c>
-      <c r="E479" s="169" t="s">
-        <v>573</v>
       </c>
       <c r="F479" s="157"/>
       <c r="G479" s="67"/>
@@ -39196,7 +39249,7 @@
       <c r="C480" s="67"/>
       <c r="D480" s="247"/>
       <c r="E480" s="202" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F480" s="157"/>
       <c r="G480" s="67"/>
@@ -39211,7 +39264,7 @@
       <c r="C481" s="67"/>
       <c r="D481" s="247"/>
       <c r="E481" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F481" s="157"/>
       <c r="G481" s="67"/>
@@ -39245,7 +39298,7 @@
       <c r="F483" s="133"/>
       <c r="G483" s="67"/>
       <c r="H483" s="153" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I483" s="155"/>
       <c r="J483" s="156"/>
@@ -39266,7 +39319,7 @@
       </c>
       <c r="G484" s="69"/>
       <c r="H484" s="106" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I484" s="120"/>
       <c r="J484" s="151"/>
@@ -39367,7 +39420,7 @@
       <c r="H490" s="200"/>
       <c r="I490" s="90"/>
       <c r="J490" s="90" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K490" s="111"/>
     </row>
@@ -39382,16 +39435,18 @@
       </c>
       <c r="G491" s="69"/>
       <c r="H491" s="145" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="I491" s="90" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J491" s="90" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="K491" s="111"/>
-      <c r="L491" s="114"/>
+      <c r="L491" s="256" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="492" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A492" s="239"/>
@@ -39415,7 +39470,7 @@
       <c r="D493" s="237"/>
       <c r="E493" s="237"/>
       <c r="F493" s="85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G493" s="71"/>
       <c r="H493" s="198"/>
@@ -39429,18 +39484,18 @@
       <c r="C494" s="67"/>
       <c r="D494" s="237"/>
       <c r="E494" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F494" s="78" t="s">
         <v>560</v>
-      </c>
-      <c r="F494" s="78" t="s">
-        <v>561</v>
       </c>
       <c r="G494" s="70"/>
       <c r="H494" s="146" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I494" s="90"/>
       <c r="J494" s="90" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="K494" s="111"/>
     </row>
@@ -39451,15 +39506,15 @@
       <c r="D495" s="237"/>
       <c r="E495" s="237"/>
       <c r="F495" s="171" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G495" s="70"/>
       <c r="H495" s="149" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I495" s="90"/>
       <c r="J495" s="90" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K495" s="111"/>
     </row>
@@ -39470,7 +39525,7 @@
       <c r="D496" s="237"/>
       <c r="E496" s="237"/>
       <c r="F496" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G496" s="70"/>
       <c r="H496" s="198"/>
@@ -39485,7 +39540,7 @@
       <c r="D497" s="237"/>
       <c r="E497" s="237"/>
       <c r="F497" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G497" s="70"/>
       <c r="H497" s="198"/>
@@ -39499,16 +39554,16 @@
       <c r="C498" s="67"/>
       <c r="D498" s="237"/>
       <c r="E498" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F498" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F498" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G498" s="71"/>
       <c r="H498" s="198"/>
       <c r="I498" s="90"/>
       <c r="J498" s="90" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K498" s="111"/>
     </row>
@@ -39519,7 +39574,7 @@
       <c r="D499" s="237"/>
       <c r="E499" s="237"/>
       <c r="F499" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G499" s="71"/>
       <c r="H499" s="198"/>
@@ -39534,7 +39589,7 @@
       <c r="D500" s="237"/>
       <c r="E500" s="237"/>
       <c r="F500" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G500" s="71"/>
       <c r="H500" s="198"/>
@@ -39549,7 +39604,7 @@
       <c r="D501" s="237"/>
       <c r="E501" s="237"/>
       <c r="F501" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G501" s="71"/>
       <c r="H501" s="198"/>
@@ -39562,21 +39617,21 @@
       <c r="B502" s="235"/>
       <c r="C502" s="67"/>
       <c r="D502" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E502" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E502" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F502" s="198"/>
       <c r="G502" s="67"/>
       <c r="H502" s="72" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="I502" s="90" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J502" s="90" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K502" s="111"/>
     </row>
@@ -39585,10 +39640,10 @@
       <c r="B503" s="235"/>
       <c r="C503" s="67"/>
       <c r="D503" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E503" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E503" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F503" s="198"/>
       <c r="G503" s="67"/>
@@ -39603,7 +39658,7 @@
       <c r="C504" s="67"/>
       <c r="D504" s="237"/>
       <c r="E504" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F504" s="205"/>
       <c r="G504" s="67"/>
@@ -39618,7 +39673,7 @@
       <c r="C505" s="67"/>
       <c r="D505" s="251"/>
       <c r="E505" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F505" s="157"/>
       <c r="G505" s="67"/>
@@ -39652,13 +39707,13 @@
       <c r="F507" s="133"/>
       <c r="G507" s="67"/>
       <c r="H507" s="153" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I507" s="155"/>
       <c r="J507" s="156"/>
       <c r="K507" s="117"/>
       <c r="L507" s="233" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="508" spans="1:13" s="112" customFormat="1" ht="14">
@@ -39676,7 +39731,7 @@
       </c>
       <c r="G508" s="69"/>
       <c r="H508" s="166" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I508" s="155"/>
       <c r="J508" s="167"/>
@@ -39693,7 +39748,7 @@
       </c>
       <c r="G509" s="69"/>
       <c r="H509" s="173" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I509" s="120"/>
       <c r="J509" s="120"/>
@@ -39818,7 +39873,7 @@
       <c r="D517" s="237"/>
       <c r="E517" s="237"/>
       <c r="F517" s="78" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G517" s="71"/>
       <c r="H517" s="198"/>
@@ -39832,14 +39887,14 @@
       <c r="C518" s="67"/>
       <c r="D518" s="237"/>
       <c r="E518" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F518" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F518" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G518" s="70"/>
       <c r="H518" s="145" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I518" s="90"/>
       <c r="J518" s="90"/>
@@ -39852,7 +39907,7 @@
       <c r="D519" s="237"/>
       <c r="E519" s="237"/>
       <c r="F519" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G519" s="70"/>
       <c r="H519" s="198"/>
@@ -39867,7 +39922,7 @@
       <c r="D520" s="237"/>
       <c r="E520" s="237"/>
       <c r="F520" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G520" s="70"/>
       <c r="H520" s="198"/>
@@ -39882,7 +39937,7 @@
       <c r="D521" s="237"/>
       <c r="E521" s="237"/>
       <c r="F521" s="200" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G521" s="70"/>
       <c r="H521" s="198"/>
@@ -39896,10 +39951,10 @@
       <c r="C522" s="67"/>
       <c r="D522" s="237"/>
       <c r="E522" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F522" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F522" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G522" s="71"/>
       <c r="H522" s="198"/>
@@ -39914,7 +39969,7 @@
       <c r="D523" s="237"/>
       <c r="E523" s="237"/>
       <c r="F523" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G523" s="71"/>
       <c r="H523" s="198"/>
@@ -39929,7 +39984,7 @@
       <c r="D524" s="237"/>
       <c r="E524" s="237"/>
       <c r="F524" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G524" s="71"/>
       <c r="H524" s="198"/>
@@ -39944,7 +39999,7 @@
       <c r="D525" s="237"/>
       <c r="E525" s="237"/>
       <c r="F525" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G525" s="71"/>
       <c r="H525" s="198"/>
@@ -39957,10 +40012,10 @@
       <c r="B526" s="235"/>
       <c r="C526" s="67"/>
       <c r="D526" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E526" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E526" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F526" s="198"/>
       <c r="G526" s="67"/>
@@ -39974,10 +40029,10 @@
       <c r="B527" s="235"/>
       <c r="C527" s="67"/>
       <c r="D527" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E527" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E527" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F527" s="198"/>
       <c r="G527" s="67"/>
@@ -39992,7 +40047,7 @@
       <c r="C528" s="67"/>
       <c r="D528" s="237"/>
       <c r="E528" s="176" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F528" s="205"/>
       <c r="G528" s="67"/>
@@ -40007,7 +40062,7 @@
       <c r="C529" s="67"/>
       <c r="D529" s="251"/>
       <c r="E529" s="175" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F529" s="157"/>
       <c r="G529" s="67"/>
@@ -40041,13 +40096,13 @@
       <c r="F531" s="133"/>
       <c r="G531" s="67"/>
       <c r="H531" s="153" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="I531" s="155" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J531" s="156" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K531" s="117"/>
     </row>
@@ -40065,14 +40120,15 @@
         <v>540</v>
       </c>
       <c r="G532" s="69"/>
-      <c r="H532" s="106" t="s">
-        <v>731</v>
-      </c>
+      <c r="H532" s="106"/>
       <c r="I532" s="120"/>
       <c r="J532" s="190" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K532" s="111"/>
+      <c r="L532" s="127" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="533" spans="1:13" s="112" customFormat="1" ht="14">
       <c r="A533" s="234"/>
@@ -40167,10 +40223,10 @@
       </c>
       <c r="G538" s="69"/>
       <c r="H538" s="146" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I538" s="90" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J538" s="90"/>
       <c r="K538" s="111"/>
@@ -40212,7 +40268,7 @@
       <c r="D541" s="237"/>
       <c r="E541" s="237"/>
       <c r="F541" s="188" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G541" s="71"/>
       <c r="H541" s="198"/>
@@ -40226,20 +40282,20 @@
       <c r="C542" s="67"/>
       <c r="D542" s="237"/>
       <c r="E542" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F542" s="188" t="s">
         <v>560</v>
-      </c>
-      <c r="F542" s="188" t="s">
-        <v>561</v>
       </c>
       <c r="G542" s="70"/>
       <c r="H542" s="187" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="I542" s="90" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J542" s="90" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="K542" s="111"/>
     </row>
@@ -40250,7 +40306,7 @@
       <c r="D543" s="237"/>
       <c r="E543" s="237"/>
       <c r="F543" s="188" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G543" s="70"/>
       <c r="H543" s="198"/>
@@ -40265,7 +40321,7 @@
       <c r="D544" s="237"/>
       <c r="E544" s="237"/>
       <c r="F544" s="188" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G544" s="70"/>
       <c r="H544" s="198"/>
@@ -40280,7 +40336,7 @@
       <c r="D545" s="237"/>
       <c r="E545" s="237"/>
       <c r="F545" s="188" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G545" s="70"/>
       <c r="H545" s="198"/>
@@ -40294,10 +40350,10 @@
       <c r="C546" s="67"/>
       <c r="D546" s="237"/>
       <c r="E546" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F546" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F546" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G546" s="71"/>
       <c r="H546" s="198"/>
@@ -40312,7 +40368,7 @@
       <c r="D547" s="237"/>
       <c r="E547" s="237"/>
       <c r="F547" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G547" s="71"/>
       <c r="H547" s="198"/>
@@ -40327,7 +40383,7 @@
       <c r="D548" s="237"/>
       <c r="E548" s="237"/>
       <c r="F548" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G548" s="71"/>
       <c r="H548" s="198"/>
@@ -40342,7 +40398,7 @@
       <c r="D549" s="237"/>
       <c r="E549" s="237"/>
       <c r="F549" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G549" s="71"/>
       <c r="H549" s="198"/>
@@ -40355,10 +40411,10 @@
       <c r="B550" s="235"/>
       <c r="C550" s="67"/>
       <c r="D550" s="203" t="s">
+        <v>569</v>
+      </c>
+      <c r="E550" s="189" t="s">
         <v>570</v>
-      </c>
-      <c r="E550" s="189" t="s">
-        <v>571</v>
       </c>
       <c r="F550" s="205"/>
       <c r="G550" s="67"/>
@@ -40372,10 +40428,10 @@
       <c r="B551" s="235"/>
       <c r="C551" s="67"/>
       <c r="D551" s="247" t="s">
+        <v>571</v>
+      </c>
+      <c r="E551" s="175" t="s">
         <v>572</v>
-      </c>
-      <c r="E551" s="175" t="s">
-        <v>573</v>
       </c>
       <c r="F551" s="157"/>
       <c r="G551" s="67"/>
@@ -40390,7 +40446,7 @@
       <c r="C552" s="67"/>
       <c r="D552" s="247"/>
       <c r="E552" s="202" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F552" s="157"/>
       <c r="G552" s="67"/>
@@ -40405,7 +40461,7 @@
       <c r="C553" s="67"/>
       <c r="D553" s="247"/>
       <c r="E553" s="175" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F553" s="157"/>
       <c r="G553" s="67"/>
@@ -40458,7 +40514,7 @@
       </c>
       <c r="G556" s="69"/>
       <c r="H556" s="106" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I556" s="120"/>
       <c r="J556" s="151"/>
@@ -40557,7 +40613,7 @@
       </c>
       <c r="G562" s="69"/>
       <c r="H562" s="85" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="I562" s="90"/>
       <c r="J562" s="90"/>
@@ -40600,7 +40656,7 @@
       <c r="D565" s="237"/>
       <c r="E565" s="237"/>
       <c r="F565" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G565" s="71"/>
       <c r="H565" s="198"/>
@@ -40614,10 +40670,10 @@
       <c r="C566" s="67"/>
       <c r="D566" s="237"/>
       <c r="E566" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F566" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F566" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G566" s="70"/>
       <c r="H566" s="198"/>
@@ -40632,7 +40688,7 @@
       <c r="D567" s="237"/>
       <c r="E567" s="237"/>
       <c r="F567" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G567" s="70"/>
       <c r="H567" s="198"/>
@@ -40647,7 +40703,7 @@
       <c r="D568" s="237"/>
       <c r="E568" s="237"/>
       <c r="F568" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G568" s="70"/>
       <c r="H568" s="198"/>
@@ -40662,7 +40718,7 @@
       <c r="D569" s="237"/>
       <c r="E569" s="237"/>
       <c r="F569" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G569" s="70"/>
       <c r="H569" s="198"/>
@@ -40676,10 +40732,10 @@
       <c r="C570" s="67"/>
       <c r="D570" s="237"/>
       <c r="E570" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F570" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F570" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G570" s="71"/>
       <c r="H570" s="198"/>
@@ -40694,7 +40750,7 @@
       <c r="D571" s="237"/>
       <c r="E571" s="237"/>
       <c r="F571" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G571" s="71"/>
       <c r="H571" s="198"/>
@@ -40709,7 +40765,7 @@
       <c r="D572" s="237"/>
       <c r="E572" s="237"/>
       <c r="F572" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G572" s="71"/>
       <c r="H572" s="198"/>
@@ -40724,7 +40780,7 @@
       <c r="D573" s="237"/>
       <c r="E573" s="237"/>
       <c r="F573" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G573" s="71"/>
       <c r="H573" s="198"/>
@@ -40737,10 +40793,10 @@
       <c r="B574" s="235"/>
       <c r="C574" s="67"/>
       <c r="D574" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E574" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E574" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F574" s="198"/>
       <c r="G574" s="67"/>
@@ -40754,10 +40810,10 @@
       <c r="B575" s="235"/>
       <c r="C575" s="67"/>
       <c r="D575" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E575" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E575" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F575" s="198"/>
       <c r="G575" s="67"/>
@@ -40772,7 +40828,7 @@
       <c r="C576" s="67"/>
       <c r="D576" s="237"/>
       <c r="E576" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F576" s="205"/>
       <c r="G576" s="67"/>
@@ -40787,7 +40843,7 @@
       <c r="C577" s="67"/>
       <c r="D577" s="251"/>
       <c r="E577" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F577" s="157"/>
       <c r="G577" s="67"/>
@@ -40842,7 +40898,7 @@
       </c>
       <c r="G580" s="69"/>
       <c r="H580" s="106" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I580" s="191"/>
       <c r="J580" s="167"/>
@@ -40859,7 +40915,7 @@
       </c>
       <c r="G581" s="69"/>
       <c r="H581" s="146" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="I581" s="90"/>
       <c r="J581" s="120"/>
@@ -40984,7 +41040,7 @@
       <c r="D589" s="237"/>
       <c r="E589" s="237"/>
       <c r="F589" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G589" s="71"/>
       <c r="H589" s="198"/>
@@ -40998,10 +41054,10 @@
       <c r="C590" s="67"/>
       <c r="D590" s="237"/>
       <c r="E590" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F590" s="78" t="s">
         <v>560</v>
-      </c>
-      <c r="F590" s="78" t="s">
-        <v>561</v>
       </c>
       <c r="G590" s="70"/>
       <c r="H590" s="198"/>
@@ -41016,7 +41072,7 @@
       <c r="D591" s="237"/>
       <c r="E591" s="237"/>
       <c r="F591" s="78" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G591" s="70"/>
       <c r="H591" s="198"/>
@@ -41031,7 +41087,7 @@
       <c r="D592" s="237"/>
       <c r="E592" s="237"/>
       <c r="F592" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G592" s="70"/>
       <c r="H592" s="198"/>
@@ -41046,11 +41102,11 @@
       <c r="D593" s="237"/>
       <c r="E593" s="237"/>
       <c r="F593" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G593" s="70"/>
       <c r="H593" s="168" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I593" s="90"/>
       <c r="J593" s="90"/>
@@ -41062,10 +41118,10 @@
       <c r="C594" s="67"/>
       <c r="D594" s="237"/>
       <c r="E594" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F594" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F594" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G594" s="71"/>
       <c r="H594" s="198"/>
@@ -41080,7 +41136,7 @@
       <c r="D595" s="237"/>
       <c r="E595" s="237"/>
       <c r="F595" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G595" s="71"/>
       <c r="H595" s="198"/>
@@ -41095,7 +41151,7 @@
       <c r="D596" s="237"/>
       <c r="E596" s="237"/>
       <c r="F596" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G596" s="71"/>
       <c r="H596" s="198"/>
@@ -41110,7 +41166,7 @@
       <c r="D597" s="244"/>
       <c r="E597" s="237"/>
       <c r="F597" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G597" s="71"/>
       <c r="H597" s="198"/>
@@ -41123,10 +41179,10 @@
       <c r="B598" s="235"/>
       <c r="C598" s="67"/>
       <c r="D598" s="202" t="s">
+        <v>569</v>
+      </c>
+      <c r="E598" s="194" t="s">
         <v>570</v>
-      </c>
-      <c r="E598" s="194" t="s">
-        <v>571</v>
       </c>
       <c r="F598" s="198"/>
       <c r="G598" s="67"/>
@@ -41140,10 +41196,10 @@
       <c r="B599" s="235"/>
       <c r="C599" s="67"/>
       <c r="D599" s="252" t="s">
+        <v>571</v>
+      </c>
+      <c r="E599" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E599" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F599" s="198"/>
       <c r="G599" s="67"/>
@@ -41158,7 +41214,7 @@
       <c r="C600" s="67"/>
       <c r="D600" s="237"/>
       <c r="E600" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F600" s="205"/>
       <c r="G600" s="67"/>
@@ -41173,7 +41229,7 @@
       <c r="C601" s="67"/>
       <c r="D601" s="251"/>
       <c r="E601" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F601" s="157"/>
       <c r="G601" s="67"/>
@@ -41207,7 +41263,7 @@
       <c r="F603" s="133"/>
       <c r="G603" s="67"/>
       <c r="H603" s="153" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="I603" s="155"/>
       <c r="J603" s="192"/>
@@ -41228,7 +41284,7 @@
       </c>
       <c r="G604" s="69"/>
       <c r="H604" s="106" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="I604" s="191"/>
       <c r="J604" s="167"/>
@@ -41297,7 +41353,7 @@
       <c r="K608" s="111"/>
       <c r="M608" s="113"/>
     </row>
-    <row r="609" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="609" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A609" s="239"/>
       <c r="B609" s="235"/>
       <c r="C609" s="67"/>
@@ -41312,7 +41368,7 @@
       <c r="J609" s="90"/>
       <c r="K609" s="111"/>
     </row>
-    <row r="610" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="610" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A610" s="239"/>
       <c r="B610" s="235"/>
       <c r="C610" s="67"/>
@@ -41330,8 +41386,11 @@
       <c r="I610" s="90"/>
       <c r="J610" s="90"/>
       <c r="K610" s="111"/>
-    </row>
-    <row r="611" spans="1:11" s="112" customFormat="1" ht="14">
+      <c r="L610" s="127" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A611" s="239"/>
       <c r="B611" s="235"/>
       <c r="C611" s="67"/>
@@ -41346,7 +41405,7 @@
       <c r="J611" s="90"/>
       <c r="K611" s="111"/>
     </row>
-    <row r="612" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="612" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A612" s="239"/>
       <c r="B612" s="235"/>
       <c r="C612" s="67"/>
@@ -41361,14 +41420,14 @@
       <c r="J612" s="90"/>
       <c r="K612" s="111"/>
     </row>
-    <row r="613" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="613" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A613" s="239"/>
       <c r="B613" s="235"/>
       <c r="C613" s="67"/>
       <c r="D613" s="237"/>
       <c r="E613" s="237"/>
       <c r="F613" s="77" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G613" s="71"/>
       <c r="H613" s="198"/>
@@ -41376,16 +41435,16 @@
       <c r="J613" s="90"/>
       <c r="K613" s="111"/>
     </row>
-    <row r="614" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="614" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A614" s="239"/>
       <c r="B614" s="235"/>
       <c r="C614" s="67"/>
       <c r="D614" s="237"/>
       <c r="E614" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F614" s="77" t="s">
         <v>560</v>
-      </c>
-      <c r="F614" s="77" t="s">
-        <v>561</v>
       </c>
       <c r="G614" s="70"/>
       <c r="H614" s="198"/>
@@ -41393,14 +41452,14 @@
       <c r="J614" s="90"/>
       <c r="K614" s="111"/>
     </row>
-    <row r="615" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="615" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A615" s="239"/>
       <c r="B615" s="235"/>
       <c r="C615" s="67"/>
       <c r="D615" s="237"/>
       <c r="E615" s="237"/>
       <c r="F615" s="85" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G615" s="70"/>
       <c r="H615" s="198"/>
@@ -41408,14 +41467,14 @@
       <c r="J615" s="90"/>
       <c r="K615" s="111"/>
     </row>
-    <row r="616" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="616" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A616" s="239"/>
       <c r="B616" s="235"/>
       <c r="C616" s="67"/>
       <c r="D616" s="237"/>
       <c r="E616" s="237"/>
       <c r="F616" s="85" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G616" s="70"/>
       <c r="H616" s="198"/>
@@ -41423,33 +41482,33 @@
       <c r="J616" s="90"/>
       <c r="K616" s="111"/>
     </row>
-    <row r="617" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="617" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A617" s="239"/>
       <c r="B617" s="235"/>
       <c r="C617" s="67"/>
       <c r="D617" s="237"/>
       <c r="E617" s="237"/>
       <c r="F617" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G617" s="70"/>
       <c r="H617" s="145" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I617" s="90"/>
       <c r="J617" s="90"/>
       <c r="K617" s="111"/>
     </row>
-    <row r="618" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="618" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A618" s="239"/>
       <c r="B618" s="235"/>
       <c r="C618" s="67"/>
       <c r="D618" s="237"/>
       <c r="E618" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F618" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F618" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G618" s="71"/>
       <c r="H618" s="198"/>
@@ -41457,14 +41516,14 @@
       <c r="J618" s="90"/>
       <c r="K618" s="111"/>
     </row>
-    <row r="619" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="619" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A619" s="239"/>
       <c r="B619" s="235"/>
       <c r="C619" s="67"/>
       <c r="D619" s="237"/>
       <c r="E619" s="237"/>
       <c r="F619" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G619" s="71"/>
       <c r="H619" s="198"/>
@@ -41472,14 +41531,14 @@
       <c r="J619" s="90"/>
       <c r="K619" s="111"/>
     </row>
-    <row r="620" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="620" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A620" s="239"/>
       <c r="B620" s="235"/>
       <c r="C620" s="67"/>
       <c r="D620" s="237"/>
       <c r="E620" s="237"/>
       <c r="F620" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G620" s="71"/>
       <c r="H620" s="198"/>
@@ -41487,14 +41546,14 @@
       <c r="J620" s="90"/>
       <c r="K620" s="111"/>
     </row>
-    <row r="621" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="621" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A621" s="239"/>
       <c r="B621" s="235"/>
       <c r="C621" s="67"/>
       <c r="D621" s="237"/>
       <c r="E621" s="237"/>
       <c r="F621" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G621" s="71"/>
       <c r="H621" s="198"/>
@@ -41502,15 +41561,15 @@
       <c r="J621" s="90"/>
       <c r="K621" s="111"/>
     </row>
-    <row r="622" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="622" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A622" s="239"/>
       <c r="B622" s="235"/>
       <c r="C622" s="67"/>
       <c r="D622" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E622" s="200" t="s">
         <v>570</v>
-      </c>
-      <c r="E622" s="200" t="s">
-        <v>571</v>
       </c>
       <c r="F622" s="198"/>
       <c r="G622" s="67"/>
@@ -41519,15 +41578,15 @@
       <c r="J622" s="90"/>
       <c r="K622" s="111"/>
     </row>
-    <row r="623" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="623" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A623" s="239"/>
       <c r="B623" s="235"/>
       <c r="C623" s="67"/>
       <c r="D623" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E623" s="203" t="s">
         <v>572</v>
-      </c>
-      <c r="E623" s="203" t="s">
-        <v>573</v>
       </c>
       <c r="F623" s="205"/>
       <c r="G623" s="67"/>
@@ -41536,13 +41595,13 @@
       <c r="J623" s="90"/>
       <c r="K623" s="111"/>
     </row>
-    <row r="624" spans="1:11" s="112" customFormat="1" ht="14">
+    <row r="624" spans="1:12" s="112" customFormat="1" ht="14">
       <c r="A624" s="239"/>
       <c r="B624" s="235"/>
       <c r="C624" s="67"/>
       <c r="D624" s="251"/>
       <c r="E624" s="202" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F624" s="157"/>
       <c r="G624" s="67"/>
@@ -41557,7 +41616,7 @@
       <c r="C625" s="67"/>
       <c r="D625" s="251"/>
       <c r="E625" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F625" s="157"/>
       <c r="G625" s="67"/>
@@ -41591,7 +41650,7 @@
       <c r="F627" s="133"/>
       <c r="G627" s="67"/>
       <c r="H627" s="153" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="I627" s="155"/>
       <c r="J627" s="156"/>
@@ -41612,11 +41671,11 @@
       </c>
       <c r="G628" s="69"/>
       <c r="H628" s="166" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="I628" s="155"/>
       <c r="J628" s="167" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K628" s="111"/>
     </row>
@@ -41631,7 +41690,7 @@
       </c>
       <c r="G629" s="69"/>
       <c r="H629" s="184" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="I629" s="120"/>
       <c r="J629" s="120"/>
@@ -41730,13 +41789,13 @@
       </c>
       <c r="G635" s="69"/>
       <c r="H635" s="255" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="I635" s="137" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J635" s="137" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="K635" s="111"/>
     </row>
@@ -41751,7 +41810,7 @@
       </c>
       <c r="G636" s="70"/>
       <c r="H636" s="78" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="I636" s="90"/>
       <c r="J636" s="90"/>
@@ -41764,7 +41823,7 @@
       <c r="D637" s="237"/>
       <c r="E637" s="237"/>
       <c r="F637" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G637" s="71"/>
       <c r="H637" s="198"/>
@@ -41778,10 +41837,10 @@
       <c r="C638" s="67"/>
       <c r="D638" s="237"/>
       <c r="E638" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F638" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F638" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G638" s="70"/>
       <c r="H638" s="198"/>
@@ -41796,7 +41855,7 @@
       <c r="D639" s="237"/>
       <c r="E639" s="237"/>
       <c r="F639" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G639" s="70"/>
       <c r="H639" s="198"/>
@@ -41811,7 +41870,7 @@
       <c r="D640" s="237"/>
       <c r="E640" s="237"/>
       <c r="F640" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G640" s="70"/>
       <c r="H640" s="198"/>
@@ -41826,7 +41885,7 @@
       <c r="D641" s="237"/>
       <c r="E641" s="237"/>
       <c r="F641" s="148" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G641" s="70"/>
       <c r="H641" s="198"/>
@@ -41840,10 +41899,10 @@
       <c r="C642" s="67"/>
       <c r="D642" s="237"/>
       <c r="E642" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F642" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F642" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G642" s="71"/>
       <c r="H642" s="198"/>
@@ -41858,7 +41917,7 @@
       <c r="D643" s="237"/>
       <c r="E643" s="237"/>
       <c r="F643" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G643" s="71"/>
       <c r="H643" s="198"/>
@@ -41873,7 +41932,7 @@
       <c r="D644" s="237"/>
       <c r="E644" s="237"/>
       <c r="F644" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G644" s="71"/>
       <c r="H644" s="198"/>
@@ -41888,7 +41947,7 @@
       <c r="D645" s="237"/>
       <c r="E645" s="237"/>
       <c r="F645" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G645" s="71"/>
       <c r="H645" s="198"/>
@@ -41901,15 +41960,15 @@
       <c r="B646" s="235"/>
       <c r="C646" s="67"/>
       <c r="D646" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E646" s="85" t="s">
         <v>570</v>
-      </c>
-      <c r="E646" s="85" t="s">
-        <v>571</v>
       </c>
       <c r="F646" s="198"/>
       <c r="G646" s="67"/>
       <c r="H646" s="85" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="I646" s="90"/>
       <c r="J646" s="90"/>
@@ -41920,10 +41979,10 @@
       <c r="B647" s="235"/>
       <c r="C647" s="67"/>
       <c r="D647" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E647" s="72" t="s">
         <v>572</v>
-      </c>
-      <c r="E647" s="72" t="s">
-        <v>573</v>
       </c>
       <c r="F647" s="198"/>
       <c r="G647" s="67"/>
@@ -41938,7 +41997,7 @@
       <c r="C648" s="67"/>
       <c r="D648" s="237"/>
       <c r="E648" s="203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F648" s="205"/>
       <c r="G648" s="67"/>
@@ -41953,7 +42012,7 @@
       <c r="C649" s="67"/>
       <c r="D649" s="251"/>
       <c r="E649" s="202" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F649" s="157"/>
       <c r="G649" s="67"/>
@@ -41977,7 +42036,7 @@
         <v>94</v>
       </c>
       <c r="B651" s="235" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C651" s="67"/>
       <c r="D651" s="152" t="s">
@@ -42006,7 +42065,7 @@
       </c>
       <c r="G652" s="69"/>
       <c r="H652" s="165" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I652" s="155"/>
       <c r="J652" s="167"/>
@@ -42105,7 +42164,7 @@
       </c>
       <c r="G658" s="69"/>
       <c r="H658" s="148" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="I658" s="90"/>
       <c r="J658" s="90"/>
@@ -42148,7 +42207,7 @@
       <c r="D661" s="237"/>
       <c r="E661" s="237"/>
       <c r="F661" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G661" s="71"/>
       <c r="H661" s="198"/>
@@ -42162,10 +42221,10 @@
       <c r="C662" s="67"/>
       <c r="D662" s="237"/>
       <c r="E662" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F662" s="200" t="s">
         <v>560</v>
-      </c>
-      <c r="F662" s="200" t="s">
-        <v>561</v>
       </c>
       <c r="G662" s="70"/>
       <c r="H662" s="198"/>
@@ -42180,7 +42239,7 @@
       <c r="D663" s="237"/>
       <c r="E663" s="237"/>
       <c r="F663" s="200" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G663" s="70"/>
       <c r="H663" s="198"/>
@@ -42195,7 +42254,7 @@
       <c r="D664" s="237"/>
       <c r="E664" s="237"/>
       <c r="F664" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G664" s="70"/>
       <c r="H664" s="198"/>
@@ -42210,11 +42269,11 @@
       <c r="D665" s="237"/>
       <c r="E665" s="237"/>
       <c r="F665" s="85" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G665" s="70"/>
       <c r="H665" s="85" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="I665" s="90"/>
       <c r="J665" s="90"/>
@@ -42226,10 +42285,10 @@
       <c r="C666" s="67"/>
       <c r="D666" s="237"/>
       <c r="E666" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F666" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F666" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G666" s="71"/>
       <c r="H666" s="198"/>
@@ -42244,7 +42303,7 @@
       <c r="D667" s="237"/>
       <c r="E667" s="237"/>
       <c r="F667" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G667" s="71"/>
       <c r="H667" s="198"/>
@@ -42259,7 +42318,7 @@
       <c r="D668" s="237"/>
       <c r="E668" s="237"/>
       <c r="F668" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G668" s="71"/>
       <c r="H668" s="198"/>
@@ -42274,7 +42333,7 @@
       <c r="D669" s="237"/>
       <c r="E669" s="237"/>
       <c r="F669" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G669" s="71"/>
       <c r="H669" s="198"/>
@@ -42287,15 +42346,15 @@
       <c r="B670" s="235"/>
       <c r="C670" s="67"/>
       <c r="D670" s="203" t="s">
+        <v>569</v>
+      </c>
+      <c r="E670" s="108" t="s">
         <v>570</v>
-      </c>
-      <c r="E670" s="108" t="s">
-        <v>571</v>
       </c>
       <c r="F670" s="198"/>
       <c r="G670" s="67"/>
       <c r="H670" s="72" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I670" s="90"/>
       <c r="J670" s="90"/>
@@ -42306,10 +42365,10 @@
       <c r="B671" s="235"/>
       <c r="C671" s="67"/>
       <c r="D671" s="247" t="s">
+        <v>571</v>
+      </c>
+      <c r="E671" s="185" t="s">
         <v>572</v>
-      </c>
-      <c r="E671" s="185" t="s">
-        <v>573</v>
       </c>
       <c r="F671" s="198"/>
       <c r="G671" s="67"/>
@@ -42324,7 +42383,7 @@
       <c r="C672" s="67"/>
       <c r="D672" s="247"/>
       <c r="E672" s="185" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F672" s="198"/>
       <c r="G672" s="67"/>
@@ -42339,7 +42398,7 @@
       <c r="C673" s="67"/>
       <c r="D673" s="247"/>
       <c r="E673" s="186" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F673" s="205"/>
       <c r="G673" s="67"/>
@@ -42375,7 +42434,7 @@
       <c r="F675" s="87"/>
       <c r="G675" s="67"/>
       <c r="H675" s="100" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="I675" s="120"/>
       <c r="J675" s="125"/>
@@ -42396,7 +42455,7 @@
       </c>
       <c r="G676" s="69"/>
       <c r="H676" s="74" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I676" s="90"/>
       <c r="J676" s="138"/>
@@ -42536,7 +42595,7 @@
       <c r="D685" s="237"/>
       <c r="E685" s="237"/>
       <c r="F685" s="200" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G685" s="71"/>
       <c r="H685" s="198"/>
@@ -42550,14 +42609,14 @@
       <c r="C686" s="67"/>
       <c r="D686" s="237"/>
       <c r="E686" s="237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F686" s="85" t="s">
         <v>560</v>
-      </c>
-      <c r="F686" s="85" t="s">
-        <v>561</v>
       </c>
       <c r="G686" s="70"/>
       <c r="H686" s="145" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I686" s="90"/>
       <c r="J686" s="90"/>
@@ -42570,11 +42629,11 @@
       <c r="D687" s="237"/>
       <c r="E687" s="237"/>
       <c r="F687" s="146" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G687" s="70"/>
       <c r="H687" s="146" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I687" s="90"/>
       <c r="J687" s="90"/>
@@ -42587,7 +42646,7 @@
       <c r="D688" s="237"/>
       <c r="E688" s="237"/>
       <c r="F688" s="200" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G688" s="70"/>
       <c r="H688" s="195"/>
@@ -42602,11 +42661,11 @@
       <c r="D689" s="237"/>
       <c r="E689" s="237"/>
       <c r="F689" s="161" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G689" s="70"/>
       <c r="H689" s="197" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I689" s="90"/>
       <c r="J689" s="90"/>
@@ -42618,10 +42677,10 @@
       <c r="C690" s="67"/>
       <c r="D690" s="237"/>
       <c r="E690" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="F690" s="200" t="s">
         <v>565</v>
-      </c>
-      <c r="F690" s="200" t="s">
-        <v>566</v>
       </c>
       <c r="G690" s="71"/>
       <c r="H690" s="198"/>
@@ -42636,7 +42695,7 @@
       <c r="D691" s="237"/>
       <c r="E691" s="237"/>
       <c r="F691" s="200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G691" s="71"/>
       <c r="H691" s="198"/>
@@ -42651,7 +42710,7 @@
       <c r="D692" s="237"/>
       <c r="E692" s="237"/>
       <c r="F692" s="200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G692" s="71"/>
       <c r="H692" s="198"/>
@@ -42666,7 +42725,7 @@
       <c r="D693" s="237"/>
       <c r="E693" s="237"/>
       <c r="F693" s="200" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G693" s="71"/>
       <c r="H693" s="198"/>
@@ -42679,15 +42738,15 @@
       <c r="B694" s="235"/>
       <c r="C694" s="67"/>
       <c r="D694" s="200" t="s">
+        <v>569</v>
+      </c>
+      <c r="E694" s="76" t="s">
         <v>570</v>
-      </c>
-      <c r="E694" s="76" t="s">
-        <v>571</v>
       </c>
       <c r="F694" s="198"/>
       <c r="G694" s="67"/>
       <c r="H694" s="196" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I694" s="90"/>
       <c r="J694" s="90"/>
@@ -42698,10 +42757,10 @@
       <c r="B695" s="235"/>
       <c r="C695" s="67"/>
       <c r="D695" s="237" t="s">
+        <v>571</v>
+      </c>
+      <c r="E695" s="200" t="s">
         <v>572</v>
-      </c>
-      <c r="E695" s="200" t="s">
-        <v>573</v>
       </c>
       <c r="F695" s="198"/>
       <c r="G695" s="67"/>
@@ -42716,7 +42775,7 @@
       <c r="C696" s="67"/>
       <c r="D696" s="237"/>
       <c r="E696" s="200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F696" s="198"/>
       <c r="G696" s="67"/>
@@ -42731,7 +42790,7 @@
       <c r="C697" s="67"/>
       <c r="D697" s="237"/>
       <c r="E697" s="200" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F697" s="198"/>
       <c r="G697" s="67"/>
